--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2928176.273740971</v>
+        <v>2929926.03753061</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2833872.953868473</v>
+        <v>2833872.953868471</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>661837.7157932897</v>
+        <v>661837.7157932892</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="D3" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="R4" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.841400149308679</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,20 +974,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D6" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="J7" t="n">
         <v>10.75721046822444</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.841400149309099</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.52936184871842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12.73205987707329</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>10.75721046822444</v>
+        <v>13.47865120333114</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>298.5987235909905</v>
       </c>
       <c r="C11" t="n">
-        <v>281.1377736985175</v>
+        <v>281.1377736985174</v>
       </c>
       <c r="D11" t="n">
         <v>270.5479235481929</v>
@@ -1387,10 +1387,10 @@
         <v>328.6181787273898</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2302243181703</v>
+        <v>229.2302243181702</v>
       </c>
       <c r="I11" t="n">
-        <v>28.0534583230415</v>
+        <v>28.05345832304604</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.78957121487844</v>
+        <v>66.78957121487842</v>
       </c>
       <c r="T11" t="n">
-        <v>127.8005547606119</v>
+        <v>127.8005547606118</v>
       </c>
       <c r="U11" t="n">
         <v>167.006579578126</v>
@@ -1435,7 +1435,7 @@
         <v>265.105850644923</v>
       </c>
       <c r="X11" t="n">
-        <v>285.5959826059788</v>
+        <v>285.595982605979</v>
       </c>
       <c r="Y11" t="n">
         <v>302.1028205835635</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.69686210944722</v>
+        <v>95.69686210944721</v>
       </c>
       <c r="C13" t="n">
-        <v>83.11170302613776</v>
+        <v>83.11170302613775</v>
       </c>
       <c r="D13" t="n">
-        <v>64.48035494572228</v>
+        <v>64.48035494572227</v>
       </c>
       <c r="E13" t="n">
-        <v>62.2988445740791</v>
+        <v>62.29884457407908</v>
       </c>
       <c r="F13" t="n">
-        <v>61.28592995044117</v>
+        <v>61.28592995044116</v>
       </c>
       <c r="G13" t="n">
-        <v>82.71226994873641</v>
+        <v>82.71226994873639</v>
       </c>
       <c r="H13" t="n">
-        <v>67.92448781846612</v>
+        <v>67.9244878184661</v>
       </c>
       <c r="I13" t="n">
-        <v>36.92444645872833</v>
+        <v>36.9244464587283</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.73824826876264</v>
+        <v>41.73824826876248</v>
       </c>
       <c r="S13" t="n">
         <v>119.9518018419887</v>
@@ -1584,7 +1584,7 @@
         <v>138.9242174603444</v>
       </c>
       <c r="U13" t="n">
-        <v>202.1215335746973</v>
+        <v>202.1215335746974</v>
       </c>
       <c r="V13" t="n">
         <v>168.0025252513379</v>
@@ -1609,7 +1609,7 @@
         <v>298.5987235909905</v>
       </c>
       <c r="C14" t="n">
-        <v>281.1377736985175</v>
+        <v>281.1377736985174</v>
       </c>
       <c r="D14" t="n">
         <v>270.5479235481929</v>
@@ -1624,10 +1624,10 @@
         <v>328.6181787273898</v>
       </c>
       <c r="H14" t="n">
-        <v>229.2302243181703</v>
+        <v>229.2302243181702</v>
       </c>
       <c r="I14" t="n">
-        <v>28.0534583230415</v>
+        <v>28.05345832304148</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.78957121487844</v>
+        <v>66.78957121487842</v>
       </c>
       <c r="T14" t="n">
-        <v>127.8005547606113</v>
+        <v>127.8005547606118</v>
       </c>
       <c r="U14" t="n">
-        <v>167.006579578126</v>
+        <v>167.0065795781283</v>
       </c>
       <c r="V14" t="n">
         <v>243.6171403976448</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.69686210944722</v>
+        <v>95.69686210944721</v>
       </c>
       <c r="C16" t="n">
-        <v>83.11170302613776</v>
+        <v>83.11170302613775</v>
       </c>
       <c r="D16" t="n">
-        <v>64.48035494572228</v>
+        <v>64.48035494572227</v>
       </c>
       <c r="E16" t="n">
-        <v>62.2988445740791</v>
+        <v>62.29884457407908</v>
       </c>
       <c r="F16" t="n">
-        <v>61.28592995044117</v>
+        <v>61.28592995044116</v>
       </c>
       <c r="G16" t="n">
-        <v>82.71226994873629</v>
+        <v>82.71226994873639</v>
       </c>
       <c r="H16" t="n">
-        <v>67.92448781846612</v>
+        <v>67.9244878184661</v>
       </c>
       <c r="I16" t="n">
-        <v>36.92444645872833</v>
+        <v>36.92444645872832</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.7382482687625</v>
+        <v>41.73824826876248</v>
       </c>
       <c r="S16" t="n">
         <v>119.9518018419887</v>
@@ -1821,7 +1821,7 @@
         <v>138.9242174603444</v>
       </c>
       <c r="U16" t="n">
-        <v>202.1215335746973</v>
+        <v>202.1215335746972</v>
       </c>
       <c r="V16" t="n">
         <v>168.0025252513379</v>
@@ -1864,7 +1864,7 @@
         <v>229.2302243181703</v>
       </c>
       <c r="I17" t="n">
-        <v>28.0534583230415</v>
+        <v>28.05345832304398</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.78957121487807</v>
+        <v>66.78957121487848</v>
       </c>
       <c r="T17" t="n">
         <v>127.8005547606119</v>
       </c>
       <c r="U17" t="n">
-        <v>167.0065795781269</v>
+        <v>167.0065795781261</v>
       </c>
       <c r="V17" t="n">
-        <v>243.6171403976448</v>
+        <v>243.6171403976449</v>
       </c>
       <c r="W17" t="n">
         <v>265.105850644923</v>
@@ -1912,7 +1912,7 @@
         <v>285.595982605979</v>
       </c>
       <c r="Y17" t="n">
-        <v>302.1028205835635</v>
+        <v>302.1028205835636</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.69686210944722</v>
+        <v>95.69686210944727</v>
       </c>
       <c r="C19" t="n">
-        <v>83.11170302613776</v>
+        <v>83.1117030261378</v>
       </c>
       <c r="D19" t="n">
-        <v>64.48035494572228</v>
+        <v>64.48035494572233</v>
       </c>
       <c r="E19" t="n">
-        <v>62.2988445740791</v>
+        <v>62.29884457407914</v>
       </c>
       <c r="F19" t="n">
-        <v>61.28592995044117</v>
+        <v>61.28592995044121</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71226994873641</v>
+        <v>82.71226994873645</v>
       </c>
       <c r="H19" t="n">
-        <v>67.92448781846612</v>
+        <v>67.92448781846616</v>
       </c>
       <c r="I19" t="n">
-        <v>36.92444645872833</v>
+        <v>36.92444645872838</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.7382482687625</v>
+        <v>41.73824826876254</v>
       </c>
       <c r="S19" t="n">
-        <v>119.9518018419887</v>
+        <v>119.9518018419888</v>
       </c>
       <c r="T19" t="n">
         <v>138.9242174603444</v>
@@ -2061,16 +2061,16 @@
         <v>202.1215335746973</v>
       </c>
       <c r="V19" t="n">
-        <v>168.0025252513379</v>
+        <v>168.002525251338</v>
       </c>
       <c r="W19" t="n">
-        <v>202.3878802641009</v>
+        <v>202.387880264101</v>
       </c>
       <c r="X19" t="n">
         <v>141.5745373165471</v>
       </c>
       <c r="Y19" t="n">
-        <v>134.4495352796047</v>
+        <v>134.4495352796048</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>229.2302243181703</v>
       </c>
       <c r="I20" t="n">
-        <v>28.0534583230415</v>
+        <v>28.05345832304154</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.78957121487842</v>
+        <v>66.78957121487848</v>
       </c>
       <c r="T20" t="n">
         <v>127.8005547606113</v>
       </c>
       <c r="U20" t="n">
-        <v>167.0065795781269</v>
+        <v>167.0065795781283</v>
       </c>
       <c r="V20" t="n">
-        <v>243.6171403976448</v>
+        <v>243.6171403976449</v>
       </c>
       <c r="W20" t="n">
         <v>265.105850644923</v>
@@ -2149,7 +2149,7 @@
         <v>285.595982605979</v>
       </c>
       <c r="Y20" t="n">
-        <v>302.1028205835635</v>
+        <v>302.1028205835636</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.69686210944722</v>
+        <v>95.69686210944727</v>
       </c>
       <c r="C22" t="n">
-        <v>83.11170302613776</v>
+        <v>83.1117030261378</v>
       </c>
       <c r="D22" t="n">
-        <v>64.48035494572228</v>
+        <v>64.48035494572233</v>
       </c>
       <c r="E22" t="n">
-        <v>62.2988445740791</v>
+        <v>62.29884457407778</v>
       </c>
       <c r="F22" t="n">
-        <v>61.28592995044117</v>
+        <v>61.28592995044121</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71226994873639</v>
+        <v>82.71226994873645</v>
       </c>
       <c r="H22" t="n">
-        <v>67.92448781846612</v>
+        <v>67.92448781846616</v>
       </c>
       <c r="I22" t="n">
-        <v>36.92444645872833</v>
+        <v>36.92444645872838</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.73824826876249</v>
+        <v>41.73824826876254</v>
       </c>
       <c r="S22" t="n">
-        <v>119.9518018419887</v>
+        <v>119.9518018419888</v>
       </c>
       <c r="T22" t="n">
         <v>138.9242174603444</v>
@@ -2298,16 +2298,16 @@
         <v>202.1215335746973</v>
       </c>
       <c r="V22" t="n">
-        <v>168.0025252513379</v>
+        <v>168.002525251338</v>
       </c>
       <c r="W22" t="n">
-        <v>202.3878802641009</v>
+        <v>202.387880264101</v>
       </c>
       <c r="X22" t="n">
         <v>141.5745373165471</v>
       </c>
       <c r="Y22" t="n">
-        <v>134.4495352796047</v>
+        <v>134.4495352796048</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>229.2302243181703</v>
       </c>
       <c r="I23" t="n">
-        <v>28.0534583230415</v>
+        <v>28.05345832304398</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.78957121487842</v>
+        <v>66.78957121487848</v>
       </c>
       <c r="T23" t="n">
-        <v>127.8005547606113</v>
+        <v>127.8005547606119</v>
       </c>
       <c r="U23" t="n">
-        <v>167.0065795781269</v>
+        <v>167.0065795781261</v>
       </c>
       <c r="V23" t="n">
-        <v>243.6171403976448</v>
+        <v>243.6171403976449</v>
       </c>
       <c r="W23" t="n">
         <v>265.105850644923</v>
@@ -2386,7 +2386,7 @@
         <v>285.595982605979</v>
       </c>
       <c r="Y23" t="n">
-        <v>302.1028205835635</v>
+        <v>302.1028205835636</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.69686210944722</v>
+        <v>95.69686210944727</v>
       </c>
       <c r="C25" t="n">
-        <v>83.11170302613776</v>
+        <v>83.1117030261378</v>
       </c>
       <c r="D25" t="n">
-        <v>64.48035494572228</v>
+        <v>64.48035494572233</v>
       </c>
       <c r="E25" t="n">
-        <v>62.2988445740791</v>
+        <v>62.29884457407914</v>
       </c>
       <c r="F25" t="n">
-        <v>61.28592995044117</v>
+        <v>61.28592995044121</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71226994873641</v>
+        <v>82.71226994873645</v>
       </c>
       <c r="H25" t="n">
-        <v>67.92448781846612</v>
+        <v>67.92448781846616</v>
       </c>
       <c r="I25" t="n">
-        <v>36.92444645872833</v>
+        <v>36.92444645872838</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.7382482687625</v>
+        <v>41.73824826876254</v>
       </c>
       <c r="S25" t="n">
-        <v>119.9518018419887</v>
+        <v>119.9518018419888</v>
       </c>
       <c r="T25" t="n">
         <v>138.9242174603444</v>
       </c>
       <c r="U25" t="n">
-        <v>202.1215335746973</v>
+        <v>202.121533574696</v>
       </c>
       <c r="V25" t="n">
-        <v>168.0025252513379</v>
+        <v>168.002525251338</v>
       </c>
       <c r="W25" t="n">
-        <v>202.3878802641009</v>
+        <v>202.387880264101</v>
       </c>
       <c r="X25" t="n">
-        <v>141.574537316547</v>
+        <v>141.5745373165471</v>
       </c>
       <c r="Y25" t="n">
-        <v>134.4495352796047</v>
+        <v>134.4495352796048</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>316.4751047520809</v>
+        <v>316.4751047520811</v>
       </c>
       <c r="C26" t="n">
-        <v>299.0141548596079</v>
+        <v>299.014154859608</v>
       </c>
       <c r="D26" t="n">
-        <v>288.4243047092833</v>
+        <v>288.4243047092834</v>
       </c>
       <c r="E26" t="n">
-        <v>315.6716331608621</v>
+        <v>315.6716331608623</v>
       </c>
       <c r="F26" t="n">
-        <v>340.6173088303118</v>
+        <v>340.6173088303119</v>
       </c>
       <c r="G26" t="n">
-        <v>346.4945598884802</v>
+        <v>346.4945598884804</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1066054792607</v>
+        <v>247.1066054792608</v>
       </c>
       <c r="I26" t="n">
-        <v>45.92983948413229</v>
+        <v>45.92983948413205</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.66595237596884</v>
+        <v>84.66595237596896</v>
       </c>
       <c r="T26" t="n">
-        <v>145.6769359217023</v>
+        <v>145.6769359217024</v>
       </c>
       <c r="U26" t="n">
-        <v>184.8829607392165</v>
+        <v>184.8829607392166</v>
       </c>
       <c r="V26" t="n">
-        <v>261.4935215587353</v>
+        <v>261.4935215587354</v>
       </c>
       <c r="W26" t="n">
-        <v>282.9822318060134</v>
+        <v>282.9822318060135</v>
       </c>
       <c r="X26" t="n">
-        <v>303.4723637670694</v>
+        <v>303.4723637670696</v>
       </c>
       <c r="Y26" t="n">
-        <v>319.9792017446539</v>
+        <v>319.9792017446541</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.5732432705376</v>
+        <v>4.675111816994034</v>
       </c>
       <c r="C28" t="n">
-        <v>100.9880841872282</v>
+        <v>100.9880841872283</v>
       </c>
       <c r="D28" t="n">
-        <v>82.3567361068127</v>
+        <v>82.35673610681282</v>
       </c>
       <c r="E28" t="n">
-        <v>80.17522573516952</v>
+        <v>80.17522573516963</v>
       </c>
       <c r="F28" t="n">
-        <v>79.16231111153159</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>100.5886511098268</v>
+        <v>100.5886511098269</v>
       </c>
       <c r="H28" t="n">
-        <v>85.80086897955654</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>54.80082761981875</v>
+        <v>54.80082761981887</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.61462942985292</v>
+        <v>59.61462942985303</v>
       </c>
       <c r="S28" t="n">
-        <v>137.8281830030791</v>
+        <v>137.8281830030793</v>
       </c>
       <c r="T28" t="n">
-        <v>156.8005986214348</v>
+        <v>156.8005986214349</v>
       </c>
       <c r="U28" t="n">
-        <v>219.9979147357877</v>
+        <v>219.9979147357878</v>
       </c>
       <c r="V28" t="n">
-        <v>139.4068583299326</v>
+        <v>185.8789064124285</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>220.2642614251915</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>159.4509184776376</v>
       </c>
       <c r="Y28" t="n">
-        <v>152.3259164406952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>316.4751047520809</v>
+        <v>316.4751047520811</v>
       </c>
       <c r="C29" t="n">
-        <v>299.0141548596079</v>
+        <v>299.014154859608</v>
       </c>
       <c r="D29" t="n">
-        <v>288.4243047092833</v>
+        <v>288.4243047092834</v>
       </c>
       <c r="E29" t="n">
-        <v>315.6716331608621</v>
+        <v>315.6716331608623</v>
       </c>
       <c r="F29" t="n">
-        <v>340.6173088303118</v>
+        <v>340.6173088303119</v>
       </c>
       <c r="G29" t="n">
-        <v>346.4945598884802</v>
+        <v>346.4945598884804</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1066054792607</v>
+        <v>247.1066054792608</v>
       </c>
       <c r="I29" t="n">
-        <v>45.92983948413323</v>
+        <v>45.92983948413203</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.66595237596884</v>
+        <v>84.66595237596881</v>
       </c>
       <c r="T29" t="n">
-        <v>145.6769359217023</v>
+        <v>145.6769359217024</v>
       </c>
       <c r="U29" t="n">
-        <v>184.8829607392165</v>
+        <v>184.8829607392159</v>
       </c>
       <c r="V29" t="n">
-        <v>261.4935215587353</v>
+        <v>261.4935215587354</v>
       </c>
       <c r="W29" t="n">
-        <v>282.9822318060134</v>
+        <v>282.9822318060135</v>
       </c>
       <c r="X29" t="n">
-        <v>303.4723637670694</v>
+        <v>303.4723637670695</v>
       </c>
       <c r="Y29" t="n">
-        <v>319.9792017446539</v>
+        <v>319.9792017446541</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.5732432705376</v>
+        <v>113.5732432705378</v>
       </c>
       <c r="C31" t="n">
-        <v>100.9880841872282</v>
+        <v>100.9880841872283</v>
       </c>
       <c r="D31" t="n">
-        <v>82.3567361068127</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>80.17522573516963</v>
       </c>
       <c r="F31" t="n">
-        <v>79.16231111153159</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>100.5886511098268</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>85.80086897955654</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>36.13679637207284</v>
       </c>
       <c r="S31" t="n">
-        <v>137.8281830030791</v>
+        <v>137.8281830030793</v>
       </c>
       <c r="T31" t="n">
-        <v>156.8005986214348</v>
+        <v>156.8005986214349</v>
       </c>
       <c r="U31" t="n">
-        <v>219.9979147357877</v>
+        <v>219.9979147357878</v>
       </c>
       <c r="V31" t="n">
-        <v>185.8789064124284</v>
+        <v>185.8789064124285</v>
       </c>
       <c r="W31" t="n">
-        <v>220.2642614251914</v>
+        <v>220.2642614251915</v>
       </c>
       <c r="X31" t="n">
-        <v>80.1802897178494</v>
+        <v>159.4509184776376</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>152.3259164406953</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>316.4751047520809</v>
+        <v>316.475104752081</v>
       </c>
       <c r="C32" t="n">
-        <v>299.0141548596079</v>
+        <v>299.014154859608</v>
       </c>
       <c r="D32" t="n">
-        <v>288.4243047092833</v>
+        <v>288.4243047092834</v>
       </c>
       <c r="E32" t="n">
-        <v>315.6716331608621</v>
+        <v>315.6716331608622</v>
       </c>
       <c r="F32" t="n">
-        <v>340.6173088303118</v>
+        <v>340.6173088303119</v>
       </c>
       <c r="G32" t="n">
-        <v>346.4945598884802</v>
+        <v>346.4945598884803</v>
       </c>
       <c r="H32" t="n">
         <v>247.1066054792607</v>
       </c>
       <c r="I32" t="n">
-        <v>45.92983948413193</v>
+        <v>45.92983948413197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.66595237596836</v>
+        <v>84.6659523759689</v>
       </c>
       <c r="T32" t="n">
-        <v>145.6769359217023</v>
+        <v>145.6769359217024</v>
       </c>
       <c r="U32" t="n">
-        <v>184.8829607392177</v>
+        <v>184.8829607392165</v>
       </c>
       <c r="V32" t="n">
         <v>261.4935215587353</v>
@@ -3094,10 +3094,10 @@
         <v>282.9822318060134</v>
       </c>
       <c r="X32" t="n">
-        <v>303.4723637670694</v>
+        <v>303.4723637670695</v>
       </c>
       <c r="Y32" t="n">
-        <v>319.9792017446539</v>
+        <v>319.979201744654</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.5732432705376</v>
+        <v>113.5732432705377</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>100.9880841872282</v>
       </c>
       <c r="D34" t="n">
-        <v>82.3567361068127</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>80.17522573516958</v>
       </c>
       <c r="F34" t="n">
-        <v>79.16231111153159</v>
+        <v>79.16231111153165</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>55.78105907612844</v>
+        <v>85.8008689795566</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>59.61462942985298</v>
       </c>
       <c r="S34" t="n">
-        <v>137.8281830030791</v>
+        <v>137.8281830030792</v>
       </c>
       <c r="T34" t="n">
-        <v>156.8005986214348</v>
+        <v>156.8005986214349</v>
       </c>
       <c r="U34" t="n">
         <v>219.9979147357877</v>
       </c>
       <c r="V34" t="n">
-        <v>185.8789064124284</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>220.2642614251914</v>
       </c>
       <c r="X34" t="n">
-        <v>159.4509184776375</v>
+        <v>156.8888117411985</v>
       </c>
       <c r="Y34" t="n">
         <v>152.3259164406952</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.78957121487841</v>
+        <v>66.78957121487842</v>
       </c>
       <c r="T35" t="n">
         <v>127.8005547606118</v>
       </c>
       <c r="U35" t="n">
-        <v>167.0065795781269</v>
+        <v>167.006579578126</v>
       </c>
       <c r="V35" t="n">
         <v>243.6171403976448</v>
@@ -3438,13 +3438,13 @@
         <v>61.28592995044116</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71226994873638</v>
+        <v>82.71226994873639</v>
       </c>
       <c r="H37" t="n">
         <v>67.9244878184661</v>
       </c>
       <c r="I37" t="n">
-        <v>36.92444645872831</v>
+        <v>36.92444645872832</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.73824826876287</v>
+        <v>41.73824826876248</v>
       </c>
       <c r="S37" t="n">
         <v>119.9518018419887</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.78957121487841</v>
+        <v>66.78957121487807</v>
       </c>
       <c r="T38" t="n">
         <v>127.8005547606118</v>
       </c>
       <c r="U38" t="n">
-        <v>167.0065795781265</v>
+        <v>167.0065795781269</v>
       </c>
       <c r="V38" t="n">
         <v>243.6171403976448</v>
@@ -3675,13 +3675,13 @@
         <v>61.28592995044116</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71226994873638</v>
+        <v>82.71226994873639</v>
       </c>
       <c r="H40" t="n">
         <v>67.9244878184661</v>
       </c>
       <c r="I40" t="n">
-        <v>36.92444645872831</v>
+        <v>36.92444645872832</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>138.9242174603444</v>
       </c>
       <c r="U40" t="n">
-        <v>202.1215335746967</v>
+        <v>202.1215335746972</v>
       </c>
       <c r="V40" t="n">
         <v>168.0025252513379</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.8574605023902</v>
+        <v>364.8574605023901</v>
       </c>
       <c r="C41" t="n">
-        <v>347.3965106099171</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>336.8066604595925</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0539889111714</v>
+        <v>364.0539889111713</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>388.999664580621</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>327.6075954558119</v>
       </c>
       <c r="H41" t="n">
-        <v>295.4889612295699</v>
+        <v>295.4889612295698</v>
       </c>
       <c r="I41" t="n">
-        <v>94.31219523444115</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.0483081262781</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>194.0592916720115</v>
       </c>
       <c r="U41" t="n">
-        <v>233.2653164895257</v>
+        <v>233.2653164895256</v>
       </c>
       <c r="V41" t="n">
-        <v>99.87140385746062</v>
+        <v>309.8758773090444</v>
       </c>
       <c r="W41" t="n">
-        <v>331.3645875563226</v>
+        <v>331.3645875563225</v>
       </c>
       <c r="X41" t="n">
-        <v>351.8547195173786</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>368.3615574949632</v>
+        <v>368.3615574949631</v>
       </c>
     </row>
     <row r="42">
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.67005589306567</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>186.2105387533884</v>
+        <v>186.2105387533883</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>268.3802704860969</v>
+        <v>268.3802704860968</v>
       </c>
       <c r="V43" t="n">
-        <v>234.2612621627376</v>
+        <v>52.28470088030338</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>268.6466171755005</v>
       </c>
       <c r="X43" t="n">
         <v>207.8332742279467</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.7082721910044</v>
+        <v>200.7082721910043</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.8574605023902</v>
+        <v>364.8574605023901</v>
       </c>
       <c r="C44" t="n">
         <v>347.3965106099171</v>
@@ -3985,13 +3985,13 @@
         <v>336.8066604595925</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0539889111714</v>
+        <v>364.0539889111713</v>
       </c>
       <c r="F44" t="n">
         <v>388.999664580621</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7212038671285</v>
+        <v>394.8769156387894</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.048308126278</v>
       </c>
       <c r="T44" t="n">
         <v>194.0592916720115</v>
       </c>
       <c r="U44" t="n">
-        <v>233.2653164895257</v>
+        <v>233.2653164895256</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>57.65069961944111</v>
       </c>
       <c r="W44" t="n">
-        <v>331.3645875563226</v>
+        <v>331.3645875563225</v>
       </c>
       <c r="X44" t="n">
-        <v>351.8547195173786</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>368.3615574949632</v>
+        <v>368.3615574949631</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.81001869956283</v>
+        <v>161.9555990208468</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>149.3704399375374</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>127.5446668618408</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>186.2105387533884</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>205.182954371744</v>
       </c>
       <c r="U46" t="n">
-        <v>268.3802704860969</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>268.6466171755006</v>
+        <v>131.4684671033202</v>
       </c>
       <c r="X46" t="n">
         <v>207.8332742279467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>200.7082721910043</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E2" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F2" t="n">
         <v>28.75151886964269</v>
@@ -4369,13 +4369,13 @@
         <v>51.11933469231312</v>
       </c>
       <c r="W2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C3" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="D3" t="n">
+        <v>48.35028351804213</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48.35028351804213</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48.35028351804213</v>
+      </c>
+      <c r="G3" t="n">
         <v>32.89297289669359</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>17.43566227534506</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.978351653996518</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.978351653996518</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4415,46 +4415,46 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N3" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O3" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P3" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="C4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="D4" t="n">
-        <v>32.13884024390788</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="E4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I4" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J4" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K4" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="L4" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M4" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N4" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
@@ -4512,28 +4512,28 @@
         <v>43.00470940373054</v>
       </c>
       <c r="R4" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S4" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="V4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="W4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y4" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>20.20471344961605</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>20.20471344961605</v>
       </c>
       <c r="I5" t="n">
         <v>13.29420824829416</v>
@@ -4570,19 +4570,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M5" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>46.6733494211619</v>
-      </c>
-      <c r="N5" t="n">
-        <v>61.2109500605402</v>
-      </c>
-      <c r="O5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4594,25 +4594,25 @@
         <v>51.11933469231312</v>
       </c>
       <c r="S5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="6">
@@ -4625,22 +4625,22 @@
         <v>48.35028351804213</v>
       </c>
       <c r="C6" t="n">
-        <v>48.35028351804213</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D6" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E6" t="n">
         <v>17.43566227534506</v>
       </c>
       <c r="F6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I6" t="n">
         <v>1.978351653996518</v>
@@ -4649,22 +4649,22 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M6" t="n">
-        <v>31.52363928117821</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N6" t="n">
         <v>46.6733494211619</v>
       </c>
       <c r="O6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P6" t="n">
-        <v>61.2109500605402</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
@@ -4691,7 +4691,7 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.2109500605402</v>
+        <v>48.35028351804213</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>58.46202002507908</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="E7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="F7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="G7" t="n">
+        <v>27.54739878238201</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27.54739878238201</v>
+      </c>
+      <c r="I7" t="n">
         <v>12.09008816103347</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.09008816103347</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.09008816103347</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.09008816103347</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.224219001210804</v>
       </c>
       <c r="J7" t="n">
         <v>1.224219001210804</v>
@@ -4737,7 +4737,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4749,28 +4749,28 @@
         <v>58.46202002507908</v>
       </c>
       <c r="R7" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S7" t="n">
-        <v>27.54739878238201</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="T7" t="n">
-        <v>12.09008816103347</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="U7" t="n">
-        <v>12.09008816103347</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V7" t="n">
-        <v>12.09008816103347</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W7" t="n">
-        <v>12.09008816103347</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X7" t="n">
-        <v>12.09008816103347</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.09008816103347</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.66614011233978</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="C8" t="n">
-        <v>59.66614011233978</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="D8" t="n">
-        <v>59.66614011233978</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="E8" t="n">
-        <v>44.20882949099123</v>
+        <v>44.20882949099171</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>28.75151886964294</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>13.29420824829418</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>13.29420824829418</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>13.29420824829418</v>
       </c>
       <c r="J8" t="n">
-        <v>1.224219001210804</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.76181964058934</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>30.91152978057326</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>46.06123992055718</v>
       </c>
       <c r="P8" t="n">
-        <v>61.2109500605402</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="R8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="S8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="T8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="U8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="V8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="W8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="X8" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231403</v>
       </c>
       <c r="Y8" t="n">
-        <v>59.66614011233978</v>
+        <v>51.11933469231403</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="D9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="E9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="F9" t="n">
-        <v>1.978351653996518</v>
+        <v>48.35028351804284</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>32.89297289669407</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>17.4356622753453</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.978351653996536</v>
       </c>
       <c r="J9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119475</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117867</v>
       </c>
       <c r="M9" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117867</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117867</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211626</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="Q9" t="n">
-        <v>61.2109500605402</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="S9" t="n">
-        <v>48.35028351804213</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="T9" t="n">
-        <v>32.89297289669359</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="U9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="V9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="W9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="X9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.978351653996518</v>
+        <v>61.21095006054111</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390835</v>
       </c>
       <c r="C10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390835</v>
       </c>
       <c r="D10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390835</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390835</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>16.68152962255959</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="K10" t="n">
-        <v>1.224219001210804</v>
+        <v>1.224219001210822</v>
       </c>
       <c r="L10" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119475</v>
       </c>
       <c r="M10" t="n">
-        <v>30.9115297805728</v>
+        <v>30.91152978057326</v>
       </c>
       <c r="N10" t="n">
-        <v>46.0612399205565</v>
+        <v>46.06123992055718</v>
       </c>
       <c r="O10" t="n">
-        <v>61.2109500605402</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="V10" t="n">
-        <v>43.00470940373054</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="W10" t="n">
-        <v>27.54739878238201</v>
+        <v>61.21095006054111</v>
       </c>
       <c r="X10" t="n">
-        <v>16.68152962255934</v>
+        <v>47.59615086525712</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1848.336510772871</v>
+        <v>1848.336510772875</v>
       </c>
       <c r="C11" t="n">
-        <v>1564.358961582449</v>
+        <v>1564.358961582454</v>
       </c>
       <c r="D11" t="n">
-        <v>1291.078230725689</v>
+        <v>1291.078230725693</v>
       </c>
       <c r="E11" t="n">
-        <v>990.2749458774344</v>
+        <v>990.2749458774391</v>
       </c>
       <c r="F11" t="n">
-        <v>664.274008837817</v>
+        <v>664.2740088378216</v>
       </c>
       <c r="G11" t="n">
-        <v>332.3364545677262</v>
+        <v>332.3364545677309</v>
       </c>
       <c r="H11" t="n">
-        <v>100.7907734382613</v>
+        <v>100.790773438266</v>
       </c>
       <c r="I11" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933058</v>
       </c>
       <c r="J11" t="n">
-        <v>274.8409383555874</v>
+        <v>274.8409383555875</v>
       </c>
       <c r="K11" t="n">
-        <v>698.9113794558161</v>
+        <v>698.9113794558162</v>
       </c>
       <c r="L11" t="n">
         <v>1277.284888056376</v>
@@ -5053,40 +5053,40 @@
         <v>1937.443402491901</v>
       </c>
       <c r="N11" t="n">
-        <v>2332.972129817748</v>
+        <v>2593.651974319658</v>
       </c>
       <c r="O11" t="n">
-        <v>2907.423638479719</v>
+        <v>3168.103482981629</v>
       </c>
       <c r="P11" t="n">
-        <v>3360.030327809809</v>
+        <v>3349.855912295201</v>
       </c>
       <c r="Q11" t="n">
-        <v>3622.697342466524</v>
+        <v>3612.522926951917</v>
       </c>
       <c r="R11" t="n">
-        <v>3622.697342466524</v>
+        <v>3622.697342466529</v>
       </c>
       <c r="S11" t="n">
-        <v>3555.233129118162</v>
+        <v>3555.233129118167</v>
       </c>
       <c r="T11" t="n">
-        <v>3426.141659662999</v>
+        <v>3426.141659663003</v>
       </c>
       <c r="U11" t="n">
-        <v>3257.448144937619</v>
+        <v>3257.448144937624</v>
       </c>
       <c r="V11" t="n">
-        <v>3011.370225344038</v>
+        <v>3011.370225344043</v>
       </c>
       <c r="W11" t="n">
-        <v>2743.586537823914</v>
+        <v>2743.586537823919</v>
       </c>
       <c r="X11" t="n">
-        <v>2455.105747312824</v>
+        <v>2455.105747312829</v>
       </c>
       <c r="Y11" t="n">
-        <v>2149.951383087003</v>
+        <v>2149.951383087007</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>981.8888958696144</v>
+        <v>981.8888958696147</v>
       </c>
       <c r="C12" t="n">
-        <v>807.4358665884874</v>
+        <v>807.4358665884877</v>
       </c>
       <c r="D12" t="n">
-        <v>658.5014569272362</v>
+        <v>658.5014569272364</v>
       </c>
       <c r="E12" t="n">
-        <v>499.2640019217807</v>
+        <v>499.2640019217808</v>
       </c>
       <c r="F12" t="n">
-        <v>352.7294439486657</v>
+        <v>352.7294439486658</v>
       </c>
       <c r="G12" t="n">
-        <v>215.3764680659267</v>
+        <v>215.3764680659268</v>
       </c>
       <c r="H12" t="n">
         <v>115.3144582423189</v>
       </c>
       <c r="I12" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933058</v>
       </c>
       <c r="J12" t="n">
         <v>199.3008728177597</v>
       </c>
       <c r="K12" t="n">
-        <v>542.7233162937255</v>
+        <v>542.7233162937256</v>
       </c>
       <c r="L12" t="n">
         <v>1065.901568795816</v>
@@ -5144,16 +5144,16 @@
         <v>2643.317749260773</v>
       </c>
       <c r="R12" t="n">
-        <v>2627.695754955945</v>
+        <v>2627.695754955946</v>
       </c>
       <c r="S12" t="n">
-        <v>2479.871361192682</v>
+        <v>2479.871361192683</v>
       </c>
       <c r="T12" t="n">
         <v>2283.238467088024</v>
       </c>
       <c r="U12" t="n">
-        <v>2055.105496820113</v>
+        <v>2055.105496820114</v>
       </c>
       <c r="V12" t="n">
         <v>1819.953388588371</v>
@@ -5165,7 +5165,7 @@
         <v>1357.864531654636</v>
       </c>
       <c r="Y12" t="n">
-        <v>1150.104232889682</v>
+        <v>1150.104232889683</v>
       </c>
     </row>
     <row r="13">
@@ -5181,7 +5181,7 @@
         <v>451.8744859363745</v>
       </c>
       <c r="D13" t="n">
-        <v>386.7428142740287</v>
+        <v>386.7428142740288</v>
       </c>
       <c r="E13" t="n">
         <v>323.8146884416255</v>
@@ -5190,13 +5190,13 @@
         <v>261.9097086937051</v>
       </c>
       <c r="G13" t="n">
-        <v>178.361961270739</v>
+        <v>178.3619612707391</v>
       </c>
       <c r="H13" t="n">
         <v>109.7513675147127</v>
       </c>
       <c r="I13" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933058</v>
       </c>
       <c r="J13" t="n">
         <v>143.3655138924887</v>
@@ -5205,7 +5205,7 @@
         <v>336.1483594850868</v>
       </c>
       <c r="L13" t="n">
-        <v>615.0768859464354</v>
+        <v>615.0768859464355</v>
       </c>
       <c r="M13" t="n">
         <v>915.0291998814887</v>
@@ -5257,58 +5257,58 @@
         <v>1848.336510772871</v>
       </c>
       <c r="C14" t="n">
-        <v>1564.358961582449</v>
+        <v>1564.35896158245</v>
       </c>
       <c r="D14" t="n">
         <v>1291.078230725689</v>
       </c>
       <c r="E14" t="n">
-        <v>990.2749458774342</v>
+        <v>990.2749458774347</v>
       </c>
       <c r="F14" t="n">
-        <v>664.2740088378166</v>
+        <v>664.2740088378171</v>
       </c>
       <c r="G14" t="n">
-        <v>332.3364545677259</v>
+        <v>332.3364545677263</v>
       </c>
       <c r="H14" t="n">
         <v>100.7907734382613</v>
       </c>
       <c r="I14" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J14" t="n">
-        <v>274.8409383555874</v>
+        <v>274.8409383555875</v>
       </c>
       <c r="K14" t="n">
-        <v>698.9113794558161</v>
+        <v>698.9113794558162</v>
       </c>
       <c r="L14" t="n">
-        <v>1277.284888056376</v>
+        <v>1016.605043554469</v>
       </c>
       <c r="M14" t="n">
-        <v>1666.589142475379</v>
+        <v>1676.763557989994</v>
       </c>
       <c r="N14" t="n">
-        <v>2322.797714303136</v>
+        <v>2332.972129817751</v>
       </c>
       <c r="O14" t="n">
-        <v>2897.249222965106</v>
+        <v>2907.423638479721</v>
       </c>
       <c r="P14" t="n">
-        <v>3349.855912295197</v>
+        <v>3360.030327809812</v>
       </c>
       <c r="Q14" t="n">
-        <v>3612.522926951912</v>
+        <v>3622.697342466527</v>
       </c>
       <c r="R14" t="n">
-        <v>3622.697342466524</v>
+        <v>3622.697342466527</v>
       </c>
       <c r="S14" t="n">
-        <v>3555.233129118162</v>
+        <v>3555.233129118165</v>
       </c>
       <c r="T14" t="n">
-        <v>3426.141659662999</v>
+        <v>3426.141659663002</v>
       </c>
       <c r="U14" t="n">
         <v>3257.448144937619</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>981.8888958696144</v>
+        <v>981.8888958696147</v>
       </c>
       <c r="C15" t="n">
-        <v>807.4358665884874</v>
+        <v>807.4358665884877</v>
       </c>
       <c r="D15" t="n">
-        <v>658.5014569272362</v>
+        <v>658.5014569272364</v>
       </c>
       <c r="E15" t="n">
-        <v>499.2640019217807</v>
+        <v>499.2640019217808</v>
       </c>
       <c r="F15" t="n">
-        <v>352.7294439486657</v>
+        <v>352.7294439486658</v>
       </c>
       <c r="G15" t="n">
         <v>215.3764680659267</v>
@@ -5354,13 +5354,13 @@
         <v>115.3144582423189</v>
       </c>
       <c r="I15" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J15" t="n">
         <v>199.3008728177597</v>
       </c>
       <c r="K15" t="n">
-        <v>542.7233162937255</v>
+        <v>542.7233162937256</v>
       </c>
       <c r="L15" t="n">
         <v>1065.901568795816</v>
@@ -5381,16 +5381,16 @@
         <v>2643.317749260773</v>
       </c>
       <c r="R15" t="n">
-        <v>2627.695754955945</v>
+        <v>2627.695754955946</v>
       </c>
       <c r="S15" t="n">
-        <v>2479.871361192682</v>
+        <v>2479.871361192683</v>
       </c>
       <c r="T15" t="n">
         <v>2283.238467088024</v>
       </c>
       <c r="U15" t="n">
-        <v>2055.105496820113</v>
+        <v>2055.105496820114</v>
       </c>
       <c r="V15" t="n">
         <v>1819.953388588371</v>
@@ -5402,7 +5402,7 @@
         <v>1357.864531654636</v>
       </c>
       <c r="Y15" t="n">
-        <v>1150.104232889682</v>
+        <v>1150.104232889683</v>
       </c>
     </row>
     <row r="16">
@@ -5424,7 +5424,7 @@
         <v>323.8146884416254</v>
       </c>
       <c r="F16" t="n">
-        <v>261.909708693705</v>
+        <v>261.9097086937051</v>
       </c>
       <c r="G16" t="n">
         <v>178.361961270739</v>
@@ -5433,7 +5433,7 @@
         <v>109.7513675147127</v>
       </c>
       <c r="I16" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J16" t="n">
         <v>143.3655138924887</v>
@@ -5442,10 +5442,10 @@
         <v>336.1483594850868</v>
       </c>
       <c r="L16" t="n">
-        <v>615.0768859464354</v>
+        <v>615.0768859464355</v>
       </c>
       <c r="M16" t="n">
-        <v>915.0291998814887</v>
+        <v>915.0291998814888</v>
       </c>
       <c r="N16" t="n">
         <v>1215.264474245369</v>
@@ -5475,13 +5475,13 @@
         <v>1115.733595023079</v>
       </c>
       <c r="W16" t="n">
-        <v>911.3013927361084</v>
+        <v>911.3013927361085</v>
       </c>
       <c r="X16" t="n">
-        <v>768.296809588081</v>
+        <v>768.2968095880811</v>
       </c>
       <c r="Y16" t="n">
-        <v>632.4891981945409</v>
+        <v>632.489198194541</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1848.33651077287</v>
+        <v>1848.336510772874</v>
       </c>
       <c r="C17" t="n">
-        <v>1564.358961582449</v>
+        <v>1564.358961582452</v>
       </c>
       <c r="D17" t="n">
-        <v>1291.078230725689</v>
+        <v>1291.078230725691</v>
       </c>
       <c r="E17" t="n">
-        <v>990.2749458774342</v>
+        <v>990.2749458774371</v>
       </c>
       <c r="F17" t="n">
-        <v>664.2740088378166</v>
+        <v>664.2740088378196</v>
       </c>
       <c r="G17" t="n">
-        <v>332.3364545677259</v>
+        <v>332.3364545677288</v>
       </c>
       <c r="H17" t="n">
-        <v>100.7907734382613</v>
+        <v>100.7907734382639</v>
       </c>
       <c r="I17" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J17" t="n">
-        <v>274.8409383555874</v>
+        <v>107.4352893352344</v>
       </c>
       <c r="K17" t="n">
-        <v>698.9113794558161</v>
+        <v>531.5057304354632</v>
       </c>
       <c r="L17" t="n">
-        <v>1006.430628039855</v>
+        <v>1016.605043554469</v>
       </c>
       <c r="M17" t="n">
-        <v>1666.58914247538</v>
+        <v>1676.763557989994</v>
       </c>
       <c r="N17" t="n">
-        <v>2322.797714303137</v>
+        <v>2332.972129817751</v>
       </c>
       <c r="O17" t="n">
-        <v>2897.249222965107</v>
+        <v>2907.423638479721</v>
       </c>
       <c r="P17" t="n">
-        <v>3349.855912295197</v>
+        <v>3360.030327809812</v>
       </c>
       <c r="Q17" t="n">
-        <v>3612.522926951913</v>
+        <v>3622.697342466527</v>
       </c>
       <c r="R17" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466527</v>
       </c>
       <c r="S17" t="n">
-        <v>3555.233129118163</v>
+        <v>3555.233129118165</v>
       </c>
       <c r="T17" t="n">
-        <v>3426.141659663</v>
+        <v>3426.141659663002</v>
       </c>
       <c r="U17" t="n">
-        <v>3257.448144937619</v>
+        <v>3257.448144937622</v>
       </c>
       <c r="V17" t="n">
-        <v>3011.370225344038</v>
+        <v>3011.370225344041</v>
       </c>
       <c r="W17" t="n">
-        <v>2743.586537823914</v>
+        <v>2743.586537823917</v>
       </c>
       <c r="X17" t="n">
-        <v>2455.105747312824</v>
+        <v>2455.105747312827</v>
       </c>
       <c r="Y17" t="n">
-        <v>2149.951383087002</v>
+        <v>2149.951383087006</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>981.8888958696144</v>
+        <v>981.8888958696147</v>
       </c>
       <c r="C18" t="n">
-        <v>807.4358665884874</v>
+        <v>807.4358665884877</v>
       </c>
       <c r="D18" t="n">
-        <v>658.5014569272362</v>
+        <v>658.5014569272364</v>
       </c>
       <c r="E18" t="n">
-        <v>499.2640019217807</v>
+        <v>499.2640019217808</v>
       </c>
       <c r="F18" t="n">
-        <v>352.7294439486657</v>
+        <v>352.7294439486658</v>
       </c>
       <c r="G18" t="n">
         <v>215.3764680659267</v>
@@ -5591,43 +5591,43 @@
         <v>115.3144582423189</v>
       </c>
       <c r="I18" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J18" t="n">
         <v>199.3008728177597</v>
       </c>
       <c r="K18" t="n">
-        <v>280.9027316512727</v>
+        <v>542.7233162937256</v>
       </c>
       <c r="L18" t="n">
-        <v>436.9490423029384</v>
+        <v>1065.901568795816</v>
       </c>
       <c r="M18" t="n">
-        <v>1099.452607889225</v>
+        <v>1267.357121269602</v>
       </c>
       <c r="N18" t="n">
-        <v>1795.197684903153</v>
+        <v>1488.553247683412</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.252827286086</v>
+        <v>1961.025502816585</v>
       </c>
       <c r="P18" t="n">
-        <v>2490.49112736656</v>
+        <v>2401.541943850597</v>
       </c>
       <c r="Q18" t="n">
         <v>2643.317749260773</v>
       </c>
       <c r="R18" t="n">
-        <v>2627.695754955945</v>
+        <v>2627.695754955946</v>
       </c>
       <c r="S18" t="n">
-        <v>2479.871361192682</v>
+        <v>2479.871361192683</v>
       </c>
       <c r="T18" t="n">
         <v>2283.238467088024</v>
       </c>
       <c r="U18" t="n">
-        <v>2055.105496820113</v>
+        <v>2055.105496820114</v>
       </c>
       <c r="V18" t="n">
         <v>1819.953388588371</v>
@@ -5639,7 +5639,7 @@
         <v>1357.864531654636</v>
       </c>
       <c r="Y18" t="n">
-        <v>1150.104232889682</v>
+        <v>1150.104232889683</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>535.8257011142913</v>
+        <v>535.8257011142916</v>
       </c>
       <c r="C19" t="n">
-        <v>451.8744859363744</v>
+        <v>451.8744859363746</v>
       </c>
       <c r="D19" t="n">
-        <v>386.7428142740286</v>
+        <v>386.7428142740289</v>
       </c>
       <c r="E19" t="n">
-        <v>323.8146884416255</v>
+        <v>323.8146884416257</v>
       </c>
       <c r="F19" t="n">
-        <v>261.9097086937051</v>
+        <v>261.9097086937053</v>
       </c>
       <c r="G19" t="n">
-        <v>178.361961270739</v>
+        <v>178.3619612707392</v>
       </c>
       <c r="H19" t="n">
         <v>109.7513675147127</v>
       </c>
       <c r="I19" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J19" t="n">
-        <v>143.3655138924887</v>
+        <v>143.3655138924889</v>
       </c>
       <c r="K19" t="n">
-        <v>336.1483594850868</v>
+        <v>336.148359485087</v>
       </c>
       <c r="L19" t="n">
-        <v>615.0768859464354</v>
+        <v>615.0768859464356</v>
       </c>
       <c r="M19" t="n">
-        <v>915.0291998814887</v>
+        <v>915.0291998814888</v>
       </c>
       <c r="N19" t="n">
         <v>1215.264474245369</v>
@@ -5694,31 +5694,31 @@
         <v>1700.451133692475</v>
       </c>
       <c r="Q19" t="n">
-        <v>1793.247056030282</v>
+        <v>1793.247056030283</v>
       </c>
       <c r="R19" t="n">
-        <v>1751.087209294158</v>
+        <v>1751.087209294159</v>
       </c>
       <c r="S19" t="n">
-        <v>1629.923773090129</v>
+        <v>1629.92377309013</v>
       </c>
       <c r="T19" t="n">
-        <v>1489.596280705943</v>
+        <v>1489.596280705944</v>
       </c>
       <c r="U19" t="n">
-        <v>1285.433115478976</v>
+        <v>1285.433115478977</v>
       </c>
       <c r="V19" t="n">
-        <v>1115.733595023079</v>
+        <v>1115.73359502308</v>
       </c>
       <c r="W19" t="n">
-        <v>911.3013927361085</v>
+        <v>911.3013927361089</v>
       </c>
       <c r="X19" t="n">
-        <v>768.2968095880811</v>
+        <v>768.2968095880815</v>
       </c>
       <c r="Y19" t="n">
-        <v>632.489198194541</v>
+        <v>632.4891981945414</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1848.33651077287</v>
+        <v>1848.336510772871</v>
       </c>
       <c r="C20" t="n">
         <v>1564.358961582449</v>
@@ -5737,19 +5737,19 @@
         <v>1291.078230725689</v>
       </c>
       <c r="E20" t="n">
-        <v>990.2749458774344</v>
+        <v>990.2749458774347</v>
       </c>
       <c r="F20" t="n">
-        <v>664.2740088378168</v>
+        <v>664.2740088378171</v>
       </c>
       <c r="G20" t="n">
-        <v>332.3364545677262</v>
+        <v>332.3364545677264</v>
       </c>
       <c r="H20" t="n">
-        <v>100.7907734382613</v>
+        <v>100.7907734382614</v>
       </c>
       <c r="I20" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J20" t="n">
         <v>107.4352893352344</v>
@@ -5773,31 +5773,31 @@
         <v>3453.304523291366</v>
       </c>
       <c r="Q20" t="n">
-        <v>3622.697342466525</v>
+        <v>3612.522926951915</v>
       </c>
       <c r="R20" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466527</v>
       </c>
       <c r="S20" t="n">
-        <v>3555.233129118163</v>
+        <v>3555.233129118165</v>
       </c>
       <c r="T20" t="n">
-        <v>3426.141659663</v>
+        <v>3426.141659663002</v>
       </c>
       <c r="U20" t="n">
-        <v>3257.448144937619</v>
+        <v>3257.44814493762</v>
       </c>
       <c r="V20" t="n">
-        <v>3011.370225344038</v>
+        <v>3011.370225344039</v>
       </c>
       <c r="W20" t="n">
-        <v>2743.586537823914</v>
+        <v>2743.586537823915</v>
       </c>
       <c r="X20" t="n">
-        <v>2455.105747312824</v>
+        <v>2455.105747312825</v>
       </c>
       <c r="Y20" t="n">
-        <v>2149.951383087002</v>
+        <v>2149.951383087003</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>981.8888958696144</v>
+        <v>981.8888958696147</v>
       </c>
       <c r="C21" t="n">
-        <v>807.4358665884874</v>
+        <v>807.4358665884877</v>
       </c>
       <c r="D21" t="n">
-        <v>658.5014569272362</v>
+        <v>658.5014569272364</v>
       </c>
       <c r="E21" t="n">
-        <v>499.2640019217807</v>
+        <v>499.2640019217808</v>
       </c>
       <c r="F21" t="n">
-        <v>352.7294439486657</v>
+        <v>352.7294439486658</v>
       </c>
       <c r="G21" t="n">
         <v>215.3764680659267</v>
@@ -5828,22 +5828,22 @@
         <v>115.3144582423189</v>
       </c>
       <c r="I21" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J21" t="n">
         <v>199.3008728177597</v>
       </c>
       <c r="K21" t="n">
-        <v>542.7233162937255</v>
+        <v>542.7233162937256</v>
       </c>
       <c r="L21" t="n">
-        <v>968.3186815460555</v>
+        <v>1065.901568795816</v>
       </c>
       <c r="M21" t="n">
-        <v>1169.774234019842</v>
+        <v>1559.697930103805</v>
       </c>
       <c r="N21" t="n">
-        <v>1390.970360433652</v>
+        <v>1780.894056517614</v>
       </c>
       <c r="O21" t="n">
         <v>1961.025502816585</v>
@@ -5855,16 +5855,16 @@
         <v>2643.317749260773</v>
       </c>
       <c r="R21" t="n">
-        <v>2627.695754955945</v>
+        <v>2627.695754955946</v>
       </c>
       <c r="S21" t="n">
-        <v>2479.871361192682</v>
+        <v>2479.871361192683</v>
       </c>
       <c r="T21" t="n">
         <v>2283.238467088024</v>
       </c>
       <c r="U21" t="n">
-        <v>2055.105496820113</v>
+        <v>2055.105496820114</v>
       </c>
       <c r="V21" t="n">
         <v>1819.953388588371</v>
@@ -5876,7 +5876,7 @@
         <v>1357.864531654636</v>
       </c>
       <c r="Y21" t="n">
-        <v>1150.104232889682</v>
+        <v>1150.104232889683</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>535.8257011142912</v>
+        <v>535.8257011142903</v>
       </c>
       <c r="C22" t="n">
-        <v>451.8744859363742</v>
+        <v>451.8744859363733</v>
       </c>
       <c r="D22" t="n">
-        <v>386.7428142740285</v>
+        <v>386.7428142740275</v>
       </c>
       <c r="E22" t="n">
-        <v>323.8146884416253</v>
+        <v>323.8146884416257</v>
       </c>
       <c r="F22" t="n">
-        <v>261.9097086937049</v>
+        <v>261.9097086937053</v>
       </c>
       <c r="G22" t="n">
-        <v>178.3619612707389</v>
+        <v>178.3619612707392</v>
       </c>
       <c r="H22" t="n">
-        <v>109.7513675147126</v>
+        <v>109.7513675147127</v>
       </c>
       <c r="I22" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J22" t="n">
-        <v>143.3655138924886</v>
+        <v>143.3655138924887</v>
       </c>
       <c r="K22" t="n">
         <v>336.1483594850867</v>
@@ -5919,7 +5919,7 @@
         <v>615.0768859464354</v>
       </c>
       <c r="M22" t="n">
-        <v>915.0291998814882</v>
+        <v>915.0291998814887</v>
       </c>
       <c r="N22" t="n">
         <v>1215.264474245369</v>
@@ -5940,22 +5940,22 @@
         <v>1629.923773090129</v>
       </c>
       <c r="T22" t="n">
-        <v>1489.596280705943</v>
+        <v>1489.596280705942</v>
       </c>
       <c r="U22" t="n">
-        <v>1285.433115478976</v>
+        <v>1285.433115478975</v>
       </c>
       <c r="V22" t="n">
-        <v>1115.733595023079</v>
+        <v>1115.733595023078</v>
       </c>
       <c r="W22" t="n">
-        <v>911.3013927361084</v>
+        <v>911.3013927361075</v>
       </c>
       <c r="X22" t="n">
-        <v>768.296809588081</v>
+        <v>768.2968095880801</v>
       </c>
       <c r="Y22" t="n">
-        <v>632.4891981945409</v>
+        <v>632.48919819454</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1848.336510772871</v>
+        <v>1848.336510772874</v>
       </c>
       <c r="C23" t="n">
-        <v>1564.358961582449</v>
+        <v>1564.358961582452</v>
       </c>
       <c r="D23" t="n">
-        <v>1291.078230725688</v>
+        <v>1291.078230725691</v>
       </c>
       <c r="E23" t="n">
-        <v>990.2749458774338</v>
+        <v>990.2749458774371</v>
       </c>
       <c r="F23" t="n">
-        <v>664.2740088378162</v>
+        <v>664.2740088378196</v>
       </c>
       <c r="G23" t="n">
-        <v>332.3364545677255</v>
+        <v>332.3364545677288</v>
       </c>
       <c r="H23" t="n">
-        <v>100.7907734382613</v>
+        <v>100.7907734382639</v>
       </c>
       <c r="I23" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J23" t="n">
-        <v>107.4352893352344</v>
+        <v>274.8409383555875</v>
       </c>
       <c r="K23" t="n">
-        <v>531.5057304354632</v>
+        <v>698.9113794558162</v>
       </c>
       <c r="L23" t="n">
-        <v>1109.879239036023</v>
+        <v>1277.284888056376</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.037753471549</v>
+        <v>1676.763557989994</v>
       </c>
       <c r="N23" t="n">
-        <v>2426.246325299305</v>
+        <v>2332.972129817751</v>
       </c>
       <c r="O23" t="n">
-        <v>3000.697833961276</v>
+        <v>2907.423638479721</v>
       </c>
       <c r="P23" t="n">
-        <v>3453.304523291366</v>
+        <v>3360.030327809812</v>
       </c>
       <c r="Q23" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466527</v>
       </c>
       <c r="R23" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466527</v>
       </c>
       <c r="S23" t="n">
-        <v>3555.233129118163</v>
+        <v>3555.233129118165</v>
       </c>
       <c r="T23" t="n">
-        <v>3426.141659663</v>
+        <v>3426.141659663002</v>
       </c>
       <c r="U23" t="n">
-        <v>3257.448144937619</v>
+        <v>3257.448144937622</v>
       </c>
       <c r="V23" t="n">
-        <v>3011.370225344038</v>
+        <v>3011.370225344041</v>
       </c>
       <c r="W23" t="n">
-        <v>2743.586537823914</v>
+        <v>2743.586537823917</v>
       </c>
       <c r="X23" t="n">
-        <v>2455.105747312824</v>
+        <v>2455.105747312827</v>
       </c>
       <c r="Y23" t="n">
-        <v>2149.951383087003</v>
+        <v>2149.951383087006</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>981.8888958696144</v>
+        <v>981.8888958696147</v>
       </c>
       <c r="C24" t="n">
-        <v>807.4358665884874</v>
+        <v>807.4358665884877</v>
       </c>
       <c r="D24" t="n">
-        <v>658.5014569272362</v>
+        <v>658.5014569272364</v>
       </c>
       <c r="E24" t="n">
-        <v>499.2640019217807</v>
+        <v>499.2640019217808</v>
       </c>
       <c r="F24" t="n">
-        <v>352.7294439486657</v>
+        <v>352.7294439486658</v>
       </c>
       <c r="G24" t="n">
         <v>215.3764680659267</v>
@@ -6065,43 +6065,43 @@
         <v>115.3144582423189</v>
       </c>
       <c r="I24" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J24" t="n">
         <v>199.3008728177597</v>
       </c>
       <c r="K24" t="n">
-        <v>542.7233162937255</v>
+        <v>280.9027316512727</v>
       </c>
       <c r="L24" t="n">
-        <v>1065.901568795816</v>
+        <v>555.9763736454665</v>
       </c>
       <c r="M24" t="n">
-        <v>1267.357121269602</v>
+        <v>1218.479939231753</v>
       </c>
       <c r="N24" t="n">
-        <v>1488.553247683412</v>
+        <v>1914.225016245681</v>
       </c>
       <c r="O24" t="n">
-        <v>2058.608390066346</v>
+        <v>2484.280158628614</v>
       </c>
       <c r="P24" t="n">
-        <v>2499.124831100357</v>
+        <v>2609.518458709088</v>
       </c>
       <c r="Q24" t="n">
         <v>2643.317749260773</v>
       </c>
       <c r="R24" t="n">
-        <v>2627.695754955945</v>
+        <v>2627.695754955946</v>
       </c>
       <c r="S24" t="n">
-        <v>2479.871361192682</v>
+        <v>2479.871361192683</v>
       </c>
       <c r="T24" t="n">
         <v>2283.238467088024</v>
       </c>
       <c r="U24" t="n">
-        <v>2055.105496820113</v>
+        <v>2055.105496820114</v>
       </c>
       <c r="V24" t="n">
         <v>1819.953388588371</v>
@@ -6113,7 +6113,7 @@
         <v>1357.864531654636</v>
       </c>
       <c r="Y24" t="n">
-        <v>1150.104232889682</v>
+        <v>1150.104232889683</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>535.8257011142913</v>
+        <v>535.8257011142916</v>
       </c>
       <c r="C25" t="n">
-        <v>451.8744859363744</v>
+        <v>451.8744859363746</v>
       </c>
       <c r="D25" t="n">
-        <v>386.7428142740286</v>
+        <v>386.7428142740289</v>
       </c>
       <c r="E25" t="n">
-        <v>323.8146884416255</v>
+        <v>323.8146884416257</v>
       </c>
       <c r="F25" t="n">
-        <v>261.9097086937051</v>
+        <v>261.9097086937053</v>
       </c>
       <c r="G25" t="n">
-        <v>178.361961270739</v>
+        <v>178.3619612707392</v>
       </c>
       <c r="H25" t="n">
         <v>109.7513675147127</v>
       </c>
       <c r="I25" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933055</v>
       </c>
       <c r="J25" t="n">
         <v>143.3655138924887</v>
       </c>
       <c r="K25" t="n">
-        <v>336.1483594850868</v>
+        <v>336.1483594850867</v>
       </c>
       <c r="L25" t="n">
         <v>615.0768859464354</v>
@@ -6177,22 +6177,22 @@
         <v>1629.923773090129</v>
       </c>
       <c r="T25" t="n">
-        <v>1489.596280705943</v>
+        <v>1489.596280705942</v>
       </c>
       <c r="U25" t="n">
-        <v>1285.433115478976</v>
+        <v>1285.433115478977</v>
       </c>
       <c r="V25" t="n">
-        <v>1115.733595023079</v>
+        <v>1115.73359502308</v>
       </c>
       <c r="W25" t="n">
-        <v>911.3013927361084</v>
+        <v>911.3013927361089</v>
       </c>
       <c r="X25" t="n">
-        <v>768.2968095880811</v>
+        <v>768.2968095880815</v>
       </c>
       <c r="Y25" t="n">
-        <v>632.489198194541</v>
+        <v>632.4891981945414</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>723.9724988006425</v>
       </c>
       <c r="G26" t="n">
-        <v>373.9779938627836</v>
+        <v>373.9779938627835</v>
       </c>
       <c r="H26" t="n">
-        <v>124.3753620655506</v>
+        <v>124.3753620655504</v>
       </c>
       <c r="I26" t="n">
-        <v>77.98158480885135</v>
+        <v>77.98158480885138</v>
       </c>
       <c r="J26" t="n">
         <v>280.3685763151083</v>
@@ -6241,25 +6241,25 @@
         <v>2599.179612279179</v>
       </c>
       <c r="O26" t="n">
-        <v>3173.63112094115</v>
+        <v>3173.631120941151</v>
       </c>
       <c r="P26" t="n">
-        <v>3626.23781027124</v>
+        <v>3626.237810271241</v>
       </c>
       <c r="Q26" t="n">
-        <v>3888.904824927955</v>
+        <v>3888.904824927957</v>
       </c>
       <c r="R26" t="n">
-        <v>3899.079240442567</v>
+        <v>3899.079240442569</v>
       </c>
       <c r="S26" t="n">
-        <v>3813.558076426437</v>
+        <v>3813.558076426439</v>
       </c>
       <c r="T26" t="n">
-        <v>3666.409656303505</v>
+        <v>3666.409656303507</v>
       </c>
       <c r="U26" t="n">
-        <v>3479.659190910358</v>
+        <v>3479.659190910359</v>
       </c>
       <c r="V26" t="n">
         <v>3215.524320649009</v>
@@ -6296,31 +6296,31 @@
         <v>358.2570819081866</v>
       </c>
       <c r="G27" t="n">
-        <v>220.9041060254475</v>
+        <v>220.9041060254476</v>
       </c>
       <c r="H27" t="n">
-        <v>120.8420962018397</v>
+        <v>120.8420962018398</v>
       </c>
       <c r="I27" t="n">
-        <v>77.98158480885135</v>
+        <v>77.98158480885138</v>
       </c>
       <c r="J27" t="n">
-        <v>115.8793272613178</v>
+        <v>204.8285107772805</v>
       </c>
       <c r="K27" t="n">
-        <v>197.4811860948309</v>
+        <v>548.2509542532464</v>
       </c>
       <c r="L27" t="n">
-        <v>353.5274967464966</v>
+        <v>1071.429206755337</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.031062332783</v>
+        <v>1272.884759229123</v>
       </c>
       <c r="N27" t="n">
-        <v>1711.776139346711</v>
+        <v>1494.080885642933</v>
       </c>
       <c r="O27" t="n">
-        <v>2281.831281729644</v>
+        <v>1966.553140776106</v>
       </c>
       <c r="P27" t="n">
         <v>2407.069581810118</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>667.751993748189</v>
+        <v>501.1225189087065</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7438279025039</v>
+        <v>399.1143530630213</v>
       </c>
       <c r="D28" t="n">
-        <v>482.55520557239</v>
+        <v>315.9257307329074</v>
       </c>
       <c r="E28" t="n">
-        <v>401.5701290722188</v>
+        <v>234.9406542327361</v>
       </c>
       <c r="F28" t="n">
-        <v>321.6081986565303</v>
+        <v>234.9406542327361</v>
       </c>
       <c r="G28" t="n">
-        <v>220.0035005657961</v>
+        <v>133.3359561420017</v>
       </c>
       <c r="H28" t="n">
-        <v>133.3359561420016</v>
+        <v>133.3359561420017</v>
       </c>
       <c r="I28" t="n">
-        <v>77.98158480885135</v>
+        <v>77.98158480885138</v>
       </c>
       <c r="J28" t="n">
-        <v>131.19553450253</v>
+        <v>131.1955345025299</v>
       </c>
       <c r="K28" t="n">
-        <v>306.2807627456485</v>
+        <v>306.2807627456484</v>
       </c>
       <c r="L28" t="n">
-        <v>567.5116718575177</v>
+        <v>567.5116718575174</v>
       </c>
       <c r="M28" t="n">
-        <v>849.7663684430916</v>
+        <v>849.7663684430911</v>
       </c>
       <c r="N28" t="n">
-        <v>1132.304025457493</v>
+        <v>1132.304025457492</v>
       </c>
       <c r="O28" t="n">
-        <v>1382.264474636265</v>
+        <v>1382.264474636264</v>
       </c>
       <c r="P28" t="n">
-        <v>1582.09545020564</v>
+        <v>1582.095450205639</v>
       </c>
       <c r="Q28" t="n">
-        <v>1657.193755193967</v>
+        <v>1657.193755193966</v>
       </c>
       <c r="R28" t="n">
-        <v>1596.976957790075</v>
+        <v>1596.976957790074</v>
       </c>
       <c r="S28" t="n">
-        <v>1457.756570918278</v>
+        <v>1457.756570918277</v>
       </c>
       <c r="T28" t="n">
-        <v>1299.372127866323</v>
+        <v>1299.372127866322</v>
       </c>
       <c r="U28" t="n">
-        <v>1077.152011971588</v>
+        <v>1077.152011971587</v>
       </c>
       <c r="V28" t="n">
-        <v>936.337003557515</v>
+        <v>889.3955408479218</v>
       </c>
       <c r="W28" t="n">
-        <v>936.337003557515</v>
+        <v>666.9063878931829</v>
       </c>
       <c r="X28" t="n">
-        <v>936.337003557515</v>
+        <v>505.8448540773873</v>
       </c>
       <c r="Y28" t="n">
-        <v>782.4724414962068</v>
+        <v>505.8448540773873</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1980.26280340677</v>
+        <v>1980.262803406769</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.22830354858</v>
+        <v>1678.228303548579</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.890622024051</v>
+        <v>1386.89062202405</v>
       </c>
       <c r="E29" t="n">
-        <v>1068.030386508029</v>
+        <v>1068.030386508028</v>
       </c>
       <c r="F29" t="n">
-        <v>723.9724988006429</v>
+        <v>723.972498800642</v>
       </c>
       <c r="G29" t="n">
-        <v>373.9779938627846</v>
+        <v>373.9779938627835</v>
       </c>
       <c r="H29" t="n">
-        <v>124.3753620655516</v>
+        <v>124.3753620655504</v>
       </c>
       <c r="I29" t="n">
         <v>77.98158480885137</v>
@@ -6478,7 +6478,7 @@
         <v>2599.17961227918</v>
       </c>
       <c r="O29" t="n">
-        <v>3173.631120941151</v>
+        <v>3173.63112094115</v>
       </c>
       <c r="P29" t="n">
         <v>3626.237810271241</v>
@@ -6499,16 +6499,16 @@
         <v>3479.659190910359</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.52432064901</v>
+        <v>3215.524320649009</v>
       </c>
       <c r="W29" t="n">
-        <v>2929.683682461118</v>
+        <v>2929.683682461117</v>
       </c>
       <c r="X29" t="n">
-        <v>2623.14594128226</v>
+        <v>2623.145941282259</v>
       </c>
       <c r="Y29" t="n">
-        <v>2299.93462638867</v>
+        <v>2299.934626388669</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>77.98158480885137</v>
       </c>
       <c r="J30" t="n">
-        <v>79.9983857902758</v>
+        <v>204.8285107772805</v>
       </c>
       <c r="K30" t="n">
-        <v>197.4811860948309</v>
+        <v>548.2509542532464</v>
       </c>
       <c r="L30" t="n">
-        <v>353.5274967464966</v>
+        <v>1071.429206755337</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.031062332783</v>
+        <v>1272.884759229123</v>
       </c>
       <c r="N30" t="n">
-        <v>1711.776139346711</v>
+        <v>1494.080885642933</v>
       </c>
       <c r="O30" t="n">
-        <v>2281.831281729644</v>
+        <v>1966.553140776106</v>
       </c>
       <c r="P30" t="n">
         <v>2407.069581810118</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.4125459148675</v>
+        <v>260.9748271547078</v>
       </c>
       <c r="C31" t="n">
-        <v>429.4043800691824</v>
+        <v>158.9666613090227</v>
       </c>
       <c r="D31" t="n">
-        <v>346.2157577390685</v>
+        <v>158.9666613090227</v>
       </c>
       <c r="E31" t="n">
-        <v>346.2157577390685</v>
+        <v>77.98158480885137</v>
       </c>
       <c r="F31" t="n">
-        <v>266.2538273233801</v>
+        <v>77.98158480885137</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6491292326459</v>
+        <v>77.98158480885137</v>
       </c>
       <c r="H31" t="n">
         <v>77.98158480885137</v>
@@ -6621,52 +6621,52 @@
         <v>77.98158480885137</v>
       </c>
       <c r="J31" t="n">
-        <v>131.19553450253</v>
+        <v>131.1955345025299</v>
       </c>
       <c r="K31" t="n">
-        <v>306.2807627456486</v>
+        <v>306.2807627456484</v>
       </c>
       <c r="L31" t="n">
-        <v>567.5116718575177</v>
+        <v>567.5116718575174</v>
       </c>
       <c r="M31" t="n">
-        <v>849.7663684430916</v>
+        <v>849.7663684430911</v>
       </c>
       <c r="N31" t="n">
-        <v>1132.304025457493</v>
+        <v>1132.304025457492</v>
       </c>
       <c r="O31" t="n">
-        <v>1382.264474636265</v>
+        <v>1382.264474636264</v>
       </c>
       <c r="P31" t="n">
-        <v>1582.09545020564</v>
+        <v>1582.095450205639</v>
       </c>
       <c r="Q31" t="n">
-        <v>1657.193755193967</v>
+        <v>1657.193755193966</v>
       </c>
       <c r="R31" t="n">
-        <v>1657.193755193967</v>
+        <v>1620.691940676721</v>
       </c>
       <c r="S31" t="n">
-        <v>1517.97336832217</v>
+        <v>1481.471553804923</v>
       </c>
       <c r="T31" t="n">
-        <v>1359.588925270215</v>
+        <v>1323.087110752969</v>
       </c>
       <c r="U31" t="n">
-        <v>1137.36880937548</v>
+        <v>1100.866994858234</v>
       </c>
       <c r="V31" t="n">
-        <v>949.6123382518153</v>
+        <v>913.1105237345686</v>
       </c>
       <c r="W31" t="n">
-        <v>727.1231852970766</v>
+        <v>690.6213707798297</v>
       </c>
       <c r="X31" t="n">
-        <v>646.1329936628853</v>
+        <v>529.5598369640342</v>
       </c>
       <c r="Y31" t="n">
-        <v>646.1329936628853</v>
+        <v>375.6952749027258</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1980.262803406768</v>
+        <v>1980.262803406769</v>
       </c>
       <c r="C32" t="n">
         <v>1678.228303548579</v>
       </c>
       <c r="D32" t="n">
-        <v>1386.89062202405</v>
+        <v>1386.890622024051</v>
       </c>
       <c r="E32" t="n">
         <v>1068.030386508028</v>
       </c>
       <c r="F32" t="n">
-        <v>723.9724988006419</v>
+        <v>723.9724988006424</v>
       </c>
       <c r="G32" t="n">
-        <v>373.977993862783</v>
+        <v>373.9779938627834</v>
       </c>
       <c r="H32" t="n">
         <v>124.3753620655503</v>
       </c>
       <c r="I32" t="n">
-        <v>77.98158480885135</v>
+        <v>77.98158480885137</v>
       </c>
       <c r="J32" t="n">
-        <v>280.3685763151083</v>
+        <v>280.3685763151084</v>
       </c>
       <c r="K32" t="n">
-        <v>704.439017415337</v>
+        <v>704.4390174153373</v>
       </c>
       <c r="L32" t="n">
-        <v>1282.812526015897</v>
+        <v>1282.812526015898</v>
       </c>
       <c r="M32" t="n">
         <v>1942.971040451423</v>
       </c>
       <c r="N32" t="n">
-        <v>2599.179612279179</v>
+        <v>2599.17961227918</v>
       </c>
       <c r="O32" t="n">
         <v>3173.63112094115</v>
       </c>
       <c r="P32" t="n">
-        <v>3626.23781027124</v>
+        <v>3626.237810271241</v>
       </c>
       <c r="Q32" t="n">
-        <v>3888.904824927955</v>
+        <v>3888.904824927956</v>
       </c>
       <c r="R32" t="n">
-        <v>3899.079240442567</v>
+        <v>3899.079240442568</v>
       </c>
       <c r="S32" t="n">
         <v>3813.558076426438</v>
@@ -6733,19 +6733,19 @@
         <v>3666.409656303506</v>
       </c>
       <c r="U32" t="n">
-        <v>3479.659190910357</v>
+        <v>3479.659190910358</v>
       </c>
       <c r="V32" t="n">
         <v>3215.524320649009</v>
       </c>
       <c r="W32" t="n">
-        <v>2929.683682461116</v>
+        <v>2929.683682461117</v>
       </c>
       <c r="X32" t="n">
-        <v>2623.145941282258</v>
+        <v>2623.145941282259</v>
       </c>
       <c r="Y32" t="n">
-        <v>2299.934626388668</v>
+        <v>2299.934626388669</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>120.8420962018397</v>
       </c>
       <c r="I33" t="n">
-        <v>77.98158480885135</v>
+        <v>77.98158480885137</v>
       </c>
       <c r="J33" t="n">
         <v>204.8285107772805</v>
       </c>
       <c r="K33" t="n">
-        <v>304.8981948445241</v>
+        <v>548.2509542532464</v>
       </c>
       <c r="L33" t="n">
-        <v>828.0764473466145</v>
+        <v>902.7220024770388</v>
       </c>
       <c r="M33" t="n">
-        <v>1490.580012932901</v>
+        <v>1565.225568063325</v>
       </c>
       <c r="N33" t="n">
-        <v>1711.776139346711</v>
+        <v>1786.421694477135</v>
       </c>
       <c r="O33" t="n">
-        <v>2281.831281729644</v>
+        <v>1966.553140776106</v>
       </c>
       <c r="P33" t="n">
         <v>2407.069581810118</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>297.4766416719551</v>
+        <v>427.6043019941908</v>
       </c>
       <c r="C34" t="n">
-        <v>297.4766416719551</v>
+        <v>325.5961361485057</v>
       </c>
       <c r="D34" t="n">
-        <v>214.2880193418413</v>
+        <v>325.5961361485057</v>
       </c>
       <c r="E34" t="n">
-        <v>214.2880193418413</v>
+        <v>244.6110596483344</v>
       </c>
       <c r="F34" t="n">
-        <v>134.3260889261528</v>
+        <v>164.6491292326459</v>
       </c>
       <c r="G34" t="n">
-        <v>134.3260889261528</v>
+        <v>164.6491292326459</v>
       </c>
       <c r="H34" t="n">
-        <v>77.98158480885135</v>
+        <v>77.98158480885137</v>
       </c>
       <c r="I34" t="n">
-        <v>77.98158480885135</v>
+        <v>77.98158480885137</v>
       </c>
       <c r="J34" t="n">
         <v>131.19553450253</v>
@@ -6864,46 +6864,46 @@
         <v>306.2807627456485</v>
       </c>
       <c r="L34" t="n">
-        <v>567.5116718575177</v>
+        <v>567.5116718575175</v>
       </c>
       <c r="M34" t="n">
-        <v>849.7663684430916</v>
+        <v>849.7663684430913</v>
       </c>
       <c r="N34" t="n">
-        <v>1132.304025457493</v>
+        <v>1132.304025457492</v>
       </c>
       <c r="O34" t="n">
         <v>1382.264474636265</v>
       </c>
       <c r="P34" t="n">
-        <v>1582.09545020564</v>
+        <v>1582.095450205639</v>
       </c>
       <c r="Q34" t="n">
-        <v>1657.193755193967</v>
+        <v>1657.193755193966</v>
       </c>
       <c r="R34" t="n">
-        <v>1657.193755193967</v>
+        <v>1596.976957790074</v>
       </c>
       <c r="S34" t="n">
-        <v>1517.97336832217</v>
+        <v>1457.756570918277</v>
       </c>
       <c r="T34" t="n">
-        <v>1359.588925270215</v>
+        <v>1299.372127866323</v>
       </c>
       <c r="U34" t="n">
-        <v>1137.36880937548</v>
+        <v>1077.152011971588</v>
       </c>
       <c r="V34" t="n">
-        <v>949.6123382518153</v>
+        <v>1077.152011971588</v>
       </c>
       <c r="W34" t="n">
-        <v>727.1231852970766</v>
+        <v>854.6628590168489</v>
       </c>
       <c r="X34" t="n">
-        <v>566.0616514812812</v>
+        <v>696.1893118035171</v>
       </c>
       <c r="Y34" t="n">
-        <v>412.1970894199729</v>
+        <v>542.3247497422087</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1848.33651077287</v>
+        <v>1848.336510772871</v>
       </c>
       <c r="C35" t="n">
         <v>1564.358961582449</v>
       </c>
       <c r="D35" t="n">
-        <v>1291.078230725688</v>
+        <v>1291.078230725689</v>
       </c>
       <c r="E35" t="n">
-        <v>990.2749458774338</v>
+        <v>990.2749458774342</v>
       </c>
       <c r="F35" t="n">
-        <v>664.2740088378162</v>
+        <v>664.2740088378166</v>
       </c>
       <c r="G35" t="n">
-        <v>332.3364545677255</v>
+        <v>332.3364545677259</v>
       </c>
       <c r="H35" t="n">
         <v>100.7907734382613</v>
@@ -6937,34 +6937,34 @@
         <v>72.45394684933049</v>
       </c>
       <c r="J35" t="n">
-        <v>224.3529346069831</v>
+        <v>274.8409383555874</v>
       </c>
       <c r="K35" t="n">
-        <v>648.4233757072119</v>
+        <v>698.9113794558161</v>
       </c>
       <c r="L35" t="n">
-        <v>1226.796884307772</v>
+        <v>1277.284888056376</v>
       </c>
       <c r="M35" t="n">
-        <v>1886.955398743297</v>
+        <v>1666.589142475379</v>
       </c>
       <c r="N35" t="n">
-        <v>2543.163970571054</v>
+        <v>2322.797714303136</v>
       </c>
       <c r="O35" t="n">
-        <v>3117.615479233024</v>
+        <v>2897.249222965106</v>
       </c>
       <c r="P35" t="n">
-        <v>3570.222168563115</v>
+        <v>3349.855912295197</v>
       </c>
       <c r="Q35" t="n">
-        <v>3622.697342466525</v>
+        <v>3612.522926951912</v>
       </c>
       <c r="R35" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466524</v>
       </c>
       <c r="S35" t="n">
-        <v>3555.233129118163</v>
+        <v>3555.233129118162</v>
       </c>
       <c r="T35" t="n">
         <v>3426.141659662999</v>
@@ -6982,7 +6982,7 @@
         <v>2455.105747312824</v>
       </c>
       <c r="Y35" t="n">
-        <v>2149.951383087002</v>
+        <v>2149.951383087003</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>199.3008728177597</v>
       </c>
       <c r="K36" t="n">
-        <v>299.370556885003</v>
+        <v>542.7233162937255</v>
       </c>
       <c r="L36" t="n">
-        <v>822.5488093870933</v>
+        <v>1065.901568795816</v>
       </c>
       <c r="M36" t="n">
-        <v>1485.05237497338</v>
+        <v>1267.357121269602</v>
       </c>
       <c r="N36" t="n">
-        <v>1706.24850138719</v>
+        <v>1488.553247683412</v>
       </c>
       <c r="O36" t="n">
-        <v>2276.303643770123</v>
+        <v>1961.025502816585</v>
       </c>
       <c r="P36" t="n">
         <v>2401.541943850597</v>
@@ -7101,19 +7101,19 @@
         <v>336.1483594850868</v>
       </c>
       <c r="L37" t="n">
-        <v>615.0768859464356</v>
+        <v>615.0768859464354</v>
       </c>
       <c r="M37" t="n">
-        <v>915.0291998814889</v>
+        <v>915.0291998814887</v>
       </c>
       <c r="N37" t="n">
         <v>1215.264474245369</v>
       </c>
       <c r="O37" t="n">
-        <v>1482.922540773622</v>
+        <v>1482.922540773621</v>
       </c>
       <c r="P37" t="n">
-        <v>1700.451133692476</v>
+        <v>1700.451133692475</v>
       </c>
       <c r="Q37" t="n">
         <v>1793.247056030282</v>
@@ -7153,73 +7153,73 @@
         <v>1848.336510772871</v>
       </c>
       <c r="C38" t="n">
-        <v>1564.358961582449</v>
+        <v>1564.35896158245</v>
       </c>
       <c r="D38" t="n">
         <v>1291.078230725689</v>
       </c>
       <c r="E38" t="n">
-        <v>990.2749458774344</v>
+        <v>990.2749458774349</v>
       </c>
       <c r="F38" t="n">
-        <v>664.2740088378168</v>
+        <v>664.2740088378173</v>
       </c>
       <c r="G38" t="n">
-        <v>332.3364545677262</v>
+        <v>332.3364545677265</v>
       </c>
       <c r="H38" t="n">
         <v>100.7907734382613</v>
       </c>
       <c r="I38" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J38" t="n">
-        <v>107.4352893352344</v>
+        <v>274.8409383555874</v>
       </c>
       <c r="K38" t="n">
-        <v>531.5057304354632</v>
+        <v>698.9113794558161</v>
       </c>
       <c r="L38" t="n">
-        <v>1109.879239036023</v>
+        <v>1277.284888056376</v>
       </c>
       <c r="M38" t="n">
-        <v>1770.037753471549</v>
+        <v>1937.443402491901</v>
       </c>
       <c r="N38" t="n">
-        <v>2426.246325299305</v>
+        <v>2332.972129817749</v>
       </c>
       <c r="O38" t="n">
-        <v>3000.697833961276</v>
+        <v>2907.42363847972</v>
       </c>
       <c r="P38" t="n">
-        <v>3453.304523291366</v>
+        <v>3360.03032780981</v>
       </c>
       <c r="Q38" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466526</v>
       </c>
       <c r="R38" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466526</v>
       </c>
       <c r="S38" t="n">
-        <v>3555.233129118163</v>
+        <v>3555.233129118164</v>
       </c>
       <c r="T38" t="n">
-        <v>3426.141659662999</v>
+        <v>3426.141659663001</v>
       </c>
       <c r="U38" t="n">
-        <v>3257.448144937619</v>
+        <v>3257.44814493762</v>
       </c>
       <c r="V38" t="n">
-        <v>3011.370225344038</v>
+        <v>3011.370225344039</v>
       </c>
       <c r="W38" t="n">
-        <v>2743.586537823914</v>
+        <v>2743.586537823915</v>
       </c>
       <c r="X38" t="n">
-        <v>2455.105747312824</v>
+        <v>2455.105747312825</v>
       </c>
       <c r="Y38" t="n">
-        <v>2149.951383087002</v>
+        <v>2149.951383087003</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>115.3144582423189</v>
       </c>
       <c r="I39" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J39" t="n">
         <v>199.3008728177597</v>
@@ -7262,10 +7262,10 @@
         <v>1065.901568795816</v>
       </c>
       <c r="M39" t="n">
-        <v>1267.357121269602</v>
+        <v>1559.697930103804</v>
       </c>
       <c r="N39" t="n">
-        <v>1488.553247683412</v>
+        <v>1780.894056517614</v>
       </c>
       <c r="O39" t="n">
         <v>1961.025502816585</v>
@@ -7326,10 +7326,10 @@
         <v>178.361961270739</v>
       </c>
       <c r="H40" t="n">
-        <v>109.7513675147126</v>
+        <v>109.7513675147127</v>
       </c>
       <c r="I40" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J40" t="n">
         <v>143.3655138924887</v>
@@ -7341,7 +7341,7 @@
         <v>615.0768859464354</v>
       </c>
       <c r="M40" t="n">
-        <v>915.0291998814887</v>
+        <v>915.0291998814888</v>
       </c>
       <c r="N40" t="n">
         <v>1215.264474245369</v>
@@ -7371,10 +7371,10 @@
         <v>1115.733595023079</v>
       </c>
       <c r="W40" t="n">
-        <v>911.3013927361088</v>
+        <v>911.3013927361086</v>
       </c>
       <c r="X40" t="n">
-        <v>768.2968095880815</v>
+        <v>768.2968095880813</v>
       </c>
       <c r="Y40" t="n">
         <v>632.4891981945409</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1525.038104874272</v>
+        <v>1802.713412138994</v>
       </c>
       <c r="C41" t="n">
-        <v>1174.132538601628</v>
+        <v>1802.713412138994</v>
       </c>
       <c r="D41" t="n">
-        <v>833.9237906626461</v>
+        <v>1462.504664200011</v>
       </c>
       <c r="E41" t="n">
-        <v>466.19248873217</v>
+        <v>1094.773362269535</v>
       </c>
       <c r="F41" t="n">
-        <v>466.19248873217</v>
+        <v>701.844408147696</v>
       </c>
       <c r="G41" t="n">
-        <v>466.19248873217</v>
+        <v>370.9276450610172</v>
       </c>
       <c r="H41" t="n">
-        <v>167.7187905204832</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="I41" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J41" t="n">
-        <v>274.8409383555874</v>
+        <v>214.178519092372</v>
       </c>
       <c r="K41" t="n">
-        <v>438.2315349539062</v>
+        <v>638.2489601926007</v>
       </c>
       <c r="L41" t="n">
-        <v>1016.605043554466</v>
+        <v>1216.622468793161</v>
       </c>
       <c r="M41" t="n">
-        <v>1676.763557989992</v>
+        <v>1876.780983228686</v>
       </c>
       <c r="N41" t="n">
-        <v>2332.972129817748</v>
+        <v>2532.989555056443</v>
       </c>
       <c r="O41" t="n">
-        <v>2907.423638479719</v>
+        <v>3107.441063718413</v>
       </c>
       <c r="P41" t="n">
-        <v>3360.030327809809</v>
+        <v>3560.047753048504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3622.697342466525</v>
+        <v>3612.522926951914</v>
       </c>
       <c r="R41" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466526</v>
       </c>
       <c r="S41" t="n">
-        <v>3488.305112035941</v>
+        <v>3622.697342466526</v>
       </c>
       <c r="T41" t="n">
-        <v>3292.285625498555</v>
+        <v>3426.677855929141</v>
       </c>
       <c r="U41" t="n">
-        <v>3056.664093690954</v>
+        <v>3191.056324121539</v>
       </c>
       <c r="V41" t="n">
-        <v>2955.783887774327</v>
+        <v>2878.050387445737</v>
       </c>
       <c r="W41" t="n">
-        <v>2621.072183171981</v>
+        <v>2543.338682843391</v>
       </c>
       <c r="X41" t="n">
-        <v>2265.663375578669</v>
+        <v>2543.338682843391</v>
       </c>
       <c r="Y41" t="n">
-        <v>1893.580994270626</v>
+        <v>2171.256301535347</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>115.3144582423189</v>
       </c>
       <c r="I42" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J42" t="n">
         <v>199.3008728177597</v>
       </c>
       <c r="K42" t="n">
-        <v>542.7233162937255</v>
+        <v>445.1404290439651</v>
       </c>
       <c r="L42" t="n">
-        <v>737.923554870938</v>
+        <v>968.3186815460555</v>
       </c>
       <c r="M42" t="n">
-        <v>1400.427120457224</v>
+        <v>1169.774234019842</v>
       </c>
       <c r="N42" t="n">
-        <v>2096.172197471152</v>
+        <v>1390.970360433652</v>
       </c>
       <c r="O42" t="n">
-        <v>2276.303643770123</v>
+        <v>1961.025502816585</v>
       </c>
       <c r="P42" t="n">
         <v>2401.541943850597</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="C43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="D43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="E43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="F43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="G43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="H43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="I43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J43" t="n">
-        <v>77.76936435020302</v>
+        <v>77.76936435020311</v>
       </c>
       <c r="K43" t="n">
-        <v>204.9560604005155</v>
+        <v>204.9560604005156</v>
       </c>
       <c r="L43" t="n">
-        <v>418.2884373195785</v>
+        <v>418.2884373195787</v>
       </c>
       <c r="M43" t="n">
-        <v>652.6446017123462</v>
+        <v>652.6446017123465</v>
       </c>
       <c r="N43" t="n">
-        <v>887.283726533941</v>
+        <v>887.2837265339414</v>
       </c>
       <c r="O43" t="n">
         <v>1089.345643519908</v>
@@ -7593,28 +7593,28 @@
         <v>1268.477859691997</v>
       </c>
       <c r="R43" t="n">
-        <v>1180.9323486889</v>
+        <v>1268.477859691997</v>
       </c>
       <c r="S43" t="n">
-        <v>992.8408954026493</v>
+        <v>1080.386406405747</v>
       </c>
       <c r="T43" t="n">
-        <v>992.8408954026493</v>
+        <v>1080.386406405747</v>
       </c>
       <c r="U43" t="n">
-        <v>721.7497130934605</v>
+        <v>809.2952240965578</v>
       </c>
       <c r="V43" t="n">
-        <v>485.1221755553418</v>
+        <v>756.4823949245342</v>
       </c>
       <c r="W43" t="n">
-        <v>485.1221755553418</v>
+        <v>485.1221755553417</v>
       </c>
       <c r="X43" t="n">
         <v>275.1895753250925</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1760.310541221482</v>
+        <v>1923.094088465584</v>
       </c>
       <c r="C44" t="n">
-        <v>1409.404974948839</v>
+        <v>1572.188522192941</v>
       </c>
       <c r="D44" t="n">
-        <v>1069.196227009857</v>
+        <v>1231.979774253959</v>
       </c>
       <c r="E44" t="n">
-        <v>701.4649250793805</v>
+        <v>864.2484723234825</v>
       </c>
       <c r="F44" t="n">
-        <v>308.5359709575411</v>
+        <v>471.3195182016431</v>
       </c>
       <c r="G44" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="H44" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="I44" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J44" t="n">
-        <v>274.8409383555874</v>
+        <v>224.352934606984</v>
       </c>
       <c r="K44" t="n">
-        <v>698.9113794558161</v>
+        <v>648.4233757072128</v>
       </c>
       <c r="L44" t="n">
-        <v>1277.284888056376</v>
+        <v>1226.796884307773</v>
       </c>
       <c r="M44" t="n">
-        <v>1666.58914247538</v>
+        <v>1886.955398743298</v>
       </c>
       <c r="N44" t="n">
-        <v>2322.797714303137</v>
+        <v>2543.163970571055</v>
       </c>
       <c r="O44" t="n">
-        <v>2897.249222965107</v>
+        <v>3117.615479233025</v>
       </c>
       <c r="P44" t="n">
-        <v>3349.855912295197</v>
+        <v>3570.222168563116</v>
       </c>
       <c r="Q44" t="n">
-        <v>3612.522926951913</v>
+        <v>3622.697342466526</v>
       </c>
       <c r="R44" t="n">
-        <v>3622.697342466525</v>
+        <v>3622.697342466526</v>
       </c>
       <c r="S44" t="n">
-        <v>3622.697342466525</v>
+        <v>3488.305112035942</v>
       </c>
       <c r="T44" t="n">
-        <v>3426.677855929139</v>
+        <v>3292.285625498556</v>
       </c>
       <c r="U44" t="n">
-        <v>3191.056324121538</v>
+        <v>3056.664093690955</v>
       </c>
       <c r="V44" t="n">
-        <v>3191.056324121538</v>
+        <v>2998.431063772327</v>
       </c>
       <c r="W44" t="n">
-        <v>2856.344619519192</v>
+        <v>2663.719359169982</v>
       </c>
       <c r="X44" t="n">
-        <v>2500.93581192588</v>
+        <v>2663.719359169982</v>
       </c>
       <c r="Y44" t="n">
-        <v>2128.853430617836</v>
+        <v>2291.636977861938</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.3144582423189</v>
       </c>
       <c r="I45" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J45" t="n">
-        <v>74.47074783075493</v>
+        <v>199.3008728177597</v>
       </c>
       <c r="K45" t="n">
-        <v>192.0689307899559</v>
+        <v>542.7233162937255</v>
       </c>
       <c r="L45" t="n">
-        <v>715.2471832920462</v>
+        <v>1065.901568795816</v>
       </c>
       <c r="M45" t="n">
-        <v>1377.750748878333</v>
+        <v>1267.357121269602</v>
       </c>
       <c r="N45" t="n">
-        <v>1598.946875292143</v>
+        <v>1488.553247683412</v>
       </c>
       <c r="O45" t="n">
-        <v>2169.002017675076</v>
+        <v>1961.025502816585</v>
       </c>
       <c r="P45" t="n">
-        <v>2609.518458709088</v>
+        <v>2401.541943850597</v>
       </c>
       <c r="Q45" t="n">
         <v>2643.317749260773</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.45394684933049</v>
+        <v>352.1661759396114</v>
       </c>
       <c r="C46" t="n">
-        <v>72.45394684933049</v>
+        <v>201.2869436794727</v>
       </c>
       <c r="D46" t="n">
-        <v>72.45394684933049</v>
+        <v>201.2869436794727</v>
       </c>
       <c r="E46" t="n">
-        <v>72.45394684933049</v>
+        <v>201.2869436794727</v>
       </c>
       <c r="F46" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="G46" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="H46" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="I46" t="n">
-        <v>72.45394684933049</v>
+        <v>72.45394684933052</v>
       </c>
       <c r="J46" t="n">
-        <v>77.76936435020302</v>
+        <v>77.76936435020311</v>
       </c>
       <c r="K46" t="n">
-        <v>204.9560604005155</v>
+        <v>204.9560604005156</v>
       </c>
       <c r="L46" t="n">
-        <v>418.2884373195785</v>
+        <v>418.2884373195787</v>
       </c>
       <c r="M46" t="n">
-        <v>652.6446017123462</v>
+        <v>652.6446017123465</v>
       </c>
       <c r="N46" t="n">
-        <v>887.283726533941</v>
+        <v>887.2837265339414</v>
       </c>
       <c r="O46" t="n">
         <v>1089.345643519908</v>
@@ -7833,25 +7833,25 @@
         <v>1268.477859691997</v>
       </c>
       <c r="S46" t="n">
-        <v>1080.386406405746</v>
+        <v>1268.477859691997</v>
       </c>
       <c r="T46" t="n">
-        <v>873.1308969393377</v>
+        <v>1061.222350225589</v>
       </c>
       <c r="U46" t="n">
-        <v>602.0397146301489</v>
+        <v>1061.222350225589</v>
       </c>
       <c r="V46" t="n">
-        <v>602.0397146301489</v>
+        <v>1061.222350225589</v>
       </c>
       <c r="W46" t="n">
-        <v>330.6794952609563</v>
+        <v>928.4259188080941</v>
       </c>
       <c r="X46" t="n">
-        <v>120.7468950307071</v>
+        <v>718.4933185778449</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.7468950307071</v>
+        <v>515.757690102083</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>153.2388248701553</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6444495984684</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8078,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M4" t="n">
         <v>154.2285214627401</v>
@@ -8151,7 +8151,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
         <v>153.8571172950092</v>
@@ -8306,16 +8306,16 @@
         <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
-        <v>146.6444495984684</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.2806895347256</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8385,10 +8385,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.030678317554</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.7158011117262</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>245.400948936822</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>246.5357332704048</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>153.1441764894943</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950095</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>157.8989819595797</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046116</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963736</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378864</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9882819803682</v>
+        <v>142.9882819803685</v>
       </c>
       <c r="O10" t="n">
-        <v>153.7592759669778</v>
+        <v>153.7592759669781</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8701,19 +8701,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>174.0339501676305</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>48.2085465386364</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>55.43923248448553</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>295.2937462971735</v>
+        <v>295.2937462971739</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8932,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>154.3482403060997</v>
       </c>
       <c r="M14" t="n">
-        <v>175.9233718599817</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>55.43923248448553</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>295.2937462971735</v>
+        <v>295.2937462971739</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>144.0710529176005</v>
+        <v>323.4448554781735</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>55.43923248448553</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>295.2937462971739</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.2296276187147</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.0986315876252</v>
+        <v>107.8214441991304</v>
       </c>
       <c r="R20" t="n">
-        <v>55.43923248448553</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>272.2717723239033</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>295.293746297174</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>186.2005592484818</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>118.0986315876252</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>55.43923248448553</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>120.2296276187153</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.5087147562929</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>36.2433752232748</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>295.2937462971739</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>36.24337522327478</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>295.2937462971739</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>18.65436892296019</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>200.429027850633</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.098631587625</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>175.9233718599817</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>55.43923248448553</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>18.6543689229599</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>295.2937462971735</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>174.0339501676314</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>118.0986315876252</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>55.43923248448553</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>295.2937462971735</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>295.2937462971735</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>107.8214441991289</v>
       </c>
       <c r="K41" t="n">
-        <v>60.83243832681134</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.43923248448553</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>165.8966640330227</v>
       </c>
       <c r="L42" t="n">
-        <v>39.549422147017</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>118.0986315876259</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>175.9233718599827</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>55.43923248448553</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>36.35992335928071</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>295.2937462971735</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.357136625301791e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>108.8981314535437</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>79.16231111153171</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>85.80086897955665</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>46.4720480824958</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>220.2642614251914</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>159.4509184776375</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>152.3259164406953</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>82.35673610681282</v>
       </c>
       <c r="E31" t="n">
-        <v>80.17522573516952</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>79.16231111153171</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>100.5886511098269</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>85.80086897955665</v>
       </c>
       <c r="I31" t="n">
-        <v>54.80082761981875</v>
+        <v>54.80082761981887</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>59.61462942985292</v>
+        <v>23.4778330577802</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>79.27062875978811</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>152.3259164406952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>100.9880841872282</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>82.35673610681276</v>
       </c>
       <c r="E34" t="n">
-        <v>80.17522573516952</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>100.5886511098268</v>
+        <v>100.5886511098269</v>
       </c>
       <c r="H34" t="n">
-        <v>30.0198099034281</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>54.80082761981875</v>
+        <v>54.80082761981881</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>59.61462942985292</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>185.8789064124284</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>2.562106736439091</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>347.3965106099171</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>388.999664580621</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>394.8769156387895</v>
+        <v>67.26932018297748</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>94.31219523444109</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.048308126278</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>210.0044734515839</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>351.8547195173786</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>161.9555990208469</v>
+        <v>161.9555990208468</v>
       </c>
       <c r="C43" t="n">
         <v>149.3704399375374</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.32692928709648</v>
+        <v>107.9969851801621</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>181.9765612824341</v>
       </c>
       <c r="W43" t="n">
-        <v>268.6466171755006</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>161.155711771661</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>295.4889612295699</v>
+        <v>295.4889612295698</v>
       </c>
       <c r="I44" t="n">
-        <v>94.31219523444115</v>
+        <v>94.31219523444109</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.0483081262781</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>309.8758773090445</v>
+        <v>252.2251776896033</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>351.8547195173786</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114.145580321284</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>149.3704399375374</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>130.7390918571219</v>
@@ -26034,7 +26034,7 @@
         <v>128.5575814854787</v>
       </c>
       <c r="F46" t="n">
-        <v>127.5446668618408</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>148.971006860136</v>
@@ -26073,25 +26073,25 @@
         <v>107.9969851801621</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>186.2105387533883</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>268.3802704860968</v>
       </c>
       <c r="V46" t="n">
-        <v>234.2612621627376</v>
+        <v>234.2612621627375</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>137.1781500721804</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>200.7082721910044</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778557.6796080522</v>
+        <v>778557.6796080524</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778557.6796080522</v>
+        <v>778557.6796080524</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775852.3487952948</v>
+        <v>775852.3487952946</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775852.3487952948</v>
+        <v>775852.3487952946</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778557.6796080524</v>
+        <v>778557.6796080522</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679086.5970995438</v>
+        <v>679086.597099544</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679086.597099544</v>
+        <v>679086.5970995441</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>738937.5928778556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>738937.5928778542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>729731.9487533717</v>
+      </c>
+      <c r="K2" t="n">
+        <v>729731.9487533716</v>
+      </c>
+      <c r="L2" t="n">
+        <v>729731.9487533718</v>
+      </c>
+      <c r="M2" t="n">
+        <v>738937.5928778544</v>
+      </c>
+      <c r="N2" t="n">
         <v>738937.5928778552</v>
       </c>
-      <c r="F2" t="n">
-        <v>738937.5928778545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>738937.5928778547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>738937.5928778553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>738937.5928778546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>729731.9487533722</v>
-      </c>
-      <c r="K2" t="n">
-        <v>729731.9487533725</v>
-      </c>
-      <c r="L2" t="n">
-        <v>729731.9487533728</v>
-      </c>
-      <c r="M2" t="n">
-        <v>738937.5928778553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>738937.5928778553</v>
-      </c>
       <c r="O2" t="n">
-        <v>633615.2702217867</v>
+        <v>633615.2702217876</v>
       </c>
       <c r="P2" t="n">
-        <v>633615.2702217868</v>
+        <v>633615.2702217875</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>842650.259816777</v>
+        <v>842650.2598167774</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>75089.27531204064</v>
+        <v>75089.27531204054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>218966.4000363521</v>
+        <v>218966.4000363523</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>166326.2417833219</v>
+        <v>166326.241783322</v>
       </c>
       <c r="F4" t="n">
-        <v>166326.2417833218</v>
+        <v>166326.241783322</v>
       </c>
       <c r="G4" t="n">
         <v>166326.2417833219</v>
@@ -26438,16 +26438,16 @@
         <v>166326.2417833219</v>
       </c>
       <c r="I4" t="n">
-        <v>166326.2417833219</v>
+        <v>166326.2417833218</v>
       </c>
       <c r="J4" t="n">
-        <v>154282.8965481974</v>
+        <v>154282.8965481973</v>
       </c>
       <c r="K4" t="n">
-        <v>154282.8965481974</v>
+        <v>154282.8965481973</v>
       </c>
       <c r="L4" t="n">
-        <v>154282.8965481974</v>
+        <v>154282.8965481973</v>
       </c>
       <c r="M4" t="n">
         <v>166326.2417833219</v>
@@ -26456,10 +26456,10 @@
         <v>166326.2417833219</v>
       </c>
       <c r="O4" t="n">
-        <v>99368.7585360542</v>
+        <v>99368.75853605426</v>
       </c>
       <c r="P4" t="n">
-        <v>99368.7585360542</v>
+        <v>99368.75853605426</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>34558.00644092021</v>
       </c>
       <c r="D5" t="n">
-        <v>34558.00644092021</v>
+        <v>34558.00644092022</v>
       </c>
       <c r="E5" t="n">
-        <v>75963.13448537722</v>
+        <v>75963.13448537729</v>
       </c>
       <c r="F5" t="n">
-        <v>75963.13448537722</v>
+        <v>75963.13448537726</v>
       </c>
       <c r="G5" t="n">
-        <v>75963.13448537723</v>
+        <v>75963.13448537726</v>
       </c>
       <c r="H5" t="n">
-        <v>75963.13448537723</v>
+        <v>75963.13448537726</v>
       </c>
       <c r="I5" t="n">
-        <v>75963.13448537723</v>
+        <v>75963.13448537726</v>
       </c>
       <c r="J5" t="n">
+        <v>78661.28984678138</v>
+      </c>
+      <c r="K5" t="n">
         <v>78661.28984678136</v>
-      </c>
-      <c r="K5" t="n">
-        <v>78661.28984678138</v>
       </c>
       <c r="L5" t="n">
         <v>78661.28984678136</v>
@@ -26505,13 +26505,13 @@
         <v>75963.13448537723</v>
       </c>
       <c r="N5" t="n">
-        <v>75963.13448537723</v>
+        <v>75963.13448537725</v>
       </c>
       <c r="O5" t="n">
-        <v>70392.82873197277</v>
+        <v>70392.8287319728</v>
       </c>
       <c r="P5" t="n">
-        <v>70392.82873197277</v>
+        <v>70392.8287319728</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>296724.7398198696</v>
       </c>
       <c r="C6" t="n">
-        <v>301853.039124154</v>
+        <v>301853.0391241544</v>
       </c>
       <c r="D6" t="n">
-        <v>301853.0391241544</v>
+        <v>301853.0391241543</v>
       </c>
       <c r="E6" t="n">
-        <v>-346002.0432076209</v>
+        <v>-346002.0432076213</v>
       </c>
       <c r="F6" t="n">
-        <v>496648.2166091554</v>
+        <v>496648.2166091566</v>
       </c>
       <c r="G6" t="n">
-        <v>496648.2166091555</v>
+        <v>496648.2166091563</v>
       </c>
       <c r="H6" t="n">
-        <v>496648.2166091562</v>
+        <v>496648.2166091556</v>
       </c>
       <c r="I6" t="n">
-        <v>496648.2166091555</v>
+        <v>496648.2166091553</v>
       </c>
       <c r="J6" t="n">
-        <v>421442.7747095617</v>
+        <v>421672.9158126733</v>
       </c>
       <c r="K6" t="n">
-        <v>496532.0500216025</v>
+        <v>496762.1911247139</v>
       </c>
       <c r="L6" t="n">
-        <v>496532.0500216028</v>
+        <v>496762.1911247141</v>
       </c>
       <c r="M6" t="n">
-        <v>277681.8165728041</v>
+        <v>277681.816572803</v>
       </c>
       <c r="N6" t="n">
-        <v>496648.2166091562</v>
+        <v>496648.216609156</v>
       </c>
       <c r="O6" t="n">
-        <v>460928.0628799801</v>
+        <v>463561.1209463826</v>
       </c>
       <c r="P6" t="n">
-        <v>460928.0628799802</v>
+        <v>463561.1209463825</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="F2" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="G2" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="H2" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="I2" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="J2" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="K2" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="L2" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="M2" t="n">
         <v>84.13511807249009</v>
@@ -26724,10 +26724,10 @@
         <v>84.13511807249009</v>
       </c>
       <c r="O2" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="P2" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
     </row>
     <row r="3">
@@ -26795,43 +26795,43 @@
         <v>15.30273751513505</v>
       </c>
       <c r="D4" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="E4" t="n">
-        <v>905.6743356166311</v>
+        <v>905.6743356166322</v>
       </c>
       <c r="F4" t="n">
-        <v>905.6743356166311</v>
+        <v>905.6743356166318</v>
       </c>
       <c r="G4" t="n">
-        <v>905.6743356166312</v>
+        <v>905.6743356166318</v>
       </c>
       <c r="H4" t="n">
-        <v>905.6743356166312</v>
+        <v>905.6743356166318</v>
       </c>
       <c r="I4" t="n">
-        <v>905.6743356166312</v>
+        <v>905.6743356166318</v>
       </c>
       <c r="J4" t="n">
-        <v>974.7698101106419</v>
+        <v>974.7698101106422</v>
       </c>
       <c r="K4" t="n">
         <v>974.769810110642</v>
       </c>
       <c r="L4" t="n">
-        <v>974.7698101106419</v>
+        <v>974.769810110642</v>
       </c>
       <c r="M4" t="n">
-        <v>905.6743356166312</v>
+        <v>905.6743356166311</v>
       </c>
       <c r="N4" t="n">
-        <v>905.6743356166312</v>
+        <v>905.6743356166314</v>
       </c>
       <c r="O4" t="n">
-        <v>905.6743356166312</v>
+        <v>905.6743356166314</v>
       </c>
       <c r="P4" t="n">
-        <v>905.6743356166312</v>
+        <v>905.6743356166314</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>890.3715981014957</v>
+        <v>890.3715981014969</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-5.837419589761652e-14</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>84.39821200914571</v>
+        <v>84.39821200914548</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>821.2761236074851</v>
+        <v>821.2761236074857</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>890.3715981014957</v>
+        <v>890.3715981014969</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.0889699229531</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>333.9728767946807</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>159.9764391112427</v>
       </c>
       <c r="D3" t="n">
-        <v>134.7130056875657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>122.0407796480756</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>135.6767521783447</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>78.05644260153773</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>70.85930573655934</v>
       </c>
       <c r="R4" t="n">
-        <v>166.5361809089451</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>203.6344894210972</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>202.1786694369367</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.8011237727943</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D6" t="n">
         <v>132.1423280495037</v>
       </c>
       <c r="E6" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>192.9506359002313</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>151.9440835834928</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6638375547068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.1477374121232</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>82.60196964844833</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27821,13 +27821,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>212.6428519131464</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.6276325571267</v>
+        <v>375.0889699229527</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>391.5733082265762</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>399.9999999999998</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>384.7085768073352</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>132.3371525163106</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>122.0407796480754</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136119</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>74.0938953362798</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>158.9511112267647</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>184.8619911796866</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28022,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.118310507796</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433235</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28070,16 +28070,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>236.834905808693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>214.9524449208127</v>
+        <v>212.231004185706</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369595</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="C11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="D11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="E11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="F11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="G11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="H11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="I11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="T11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="U11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="V11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="W11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="X11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="C13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="D13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="E13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="F13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="G13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="H13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="I13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="J13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="K13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="L13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="M13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="N13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="O13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="P13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="R13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="S13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="T13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="U13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="V13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="W13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="X13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="C14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="D14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="E14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="F14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="G14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="H14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="I14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="T14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="U14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="V14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="W14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="X14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="C16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="D16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="E16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="F16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="G16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="H16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="I16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="J16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="K16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="L16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="M16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="N16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="O16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="P16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="R16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="S16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="T16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="U16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="V16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="W16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="X16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249009</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="C17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="D17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="E17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="F17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="G17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="H17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="I17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="T17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="U17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="V17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="W17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="X17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="C19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="D19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="E19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="F19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="G19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="H19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="I19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="J19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="K19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="L19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="M19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="N19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="O19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="P19" t="n">
-        <v>84.13511807248997</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="R19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="S19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="T19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="U19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="V19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="W19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="X19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="C20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="D20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="E20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="F20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="G20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="H20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="I20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="T20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="U20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="V20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="W20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="X20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="C22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="D22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="E22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="F22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="G22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="H22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="I22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="J22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="K22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="L22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="M22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="N22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="O22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="P22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="R22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="S22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="T22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="U22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="V22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="W22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="X22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="C23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="D23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="E23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="F23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="G23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="H23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="I23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807248759</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="T23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="U23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="V23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="W23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="X23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="C25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="D25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="E25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="F25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="G25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="H25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="I25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="J25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="K25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="L25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="M25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="N25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="O25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="P25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="R25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="S25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="T25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="U25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="V25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="W25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="X25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.13511807249007</v>
+        <v>84.13511807249003</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="C26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="D26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="E26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="F26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="G26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="H26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="I26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="T26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="U26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="V26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="W26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="X26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="Y26" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="C28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="D28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="E28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="F28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="G28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="H28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="I28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="J28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="K28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="L28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="M28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="N28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="O28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="P28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="R28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="S28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="T28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="U28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="V28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="W28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="X28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="C29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="D29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="E29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="F29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="G29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="H29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="I29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="T29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="U29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="V29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="W29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="X29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="Y29" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="C31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="D31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="E31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="F31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="G31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="H31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="I31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="J31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="K31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="L31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="M31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="N31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="O31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="P31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="R31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="S31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="T31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="U31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="V31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="W31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="X31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139954</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="C32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="D32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="E32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="F32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="G32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="H32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="I32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="T32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="U32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="V32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="W32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="X32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="Y32" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="C34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="D34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="E34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="F34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="G34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="H34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="I34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="J34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="K34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="L34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="M34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="N34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="O34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="P34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="R34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="S34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="T34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="U34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="V34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="W34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="X34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.25873691139965</v>
+        <v>66.25873691139959</v>
       </c>
     </row>
     <row r="35">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="C41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="D41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="E41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="F41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="G41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="H41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="I41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="T41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="U41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="V41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="W41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="X41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="C43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="D43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="E43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="F43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="G43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="H43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="I43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="J43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="K43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="L43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="M43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="N43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="O43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="P43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="R43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="S43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="T43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="U43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="V43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="W43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="X43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="C44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="D44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="E44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="F44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="G44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="H44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="I44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="T44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="U44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="V44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="W44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="X44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="Y44" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="C46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="D46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="E46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="F46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="G46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="H46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="I46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="J46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="K46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="L46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="M46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="N46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="O46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="P46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="R46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="S46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="T46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="U46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="V46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="W46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="X46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.87638116109044</v>
+        <v>17.87638116109049</v>
       </c>
     </row>
   </sheetData>
@@ -34783,14 +34783,14 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N3" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
         <v>15.30273751513505</v>
@@ -34871,7 +34871,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="P5" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
         <v>15.30273751513505</v>
@@ -35026,16 +35026,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,10 +35105,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O7" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>14.68444509028133</v>
       </c>
       <c r="N8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028132</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028133</v>
       </c>
       <c r="N10" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="O10" t="n">
-        <v>15.30273751513505</v>
+        <v>15.30273751513528</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>666.8267822581063</v>
       </c>
       <c r="N11" t="n">
-        <v>399.5239669958049</v>
+        <v>662.8369412401585</v>
       </c>
       <c r="O11" t="n">
         <v>580.2540491535054</v>
       </c>
       <c r="P11" t="n">
-        <v>457.1784740707983</v>
+        <v>183.5883124379521</v>
       </c>
       <c r="Q11" t="n">
         <v>265.3202168249652</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>10.27718738849691</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>223.43043072102</v>
       </c>
       <c r="O12" t="n">
-        <v>477.2447021547198</v>
+        <v>477.2447021547203</v>
       </c>
       <c r="P12" t="n">
         <v>444.9661020545574</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.62784549813956</v>
+        <v>71.62784549813958</v>
       </c>
       <c r="K13" t="n">
         <v>194.7301470632304</v>
@@ -35576,7 +35576,7 @@
         <v>281.7459863245946</v>
       </c>
       <c r="M13" t="n">
-        <v>302.9821352879326</v>
+        <v>302.9821352879327</v>
       </c>
       <c r="N13" t="n">
         <v>303.2679539029096</v>
@@ -35588,7 +35588,7 @@
         <v>219.7258514331859</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.73325488667334</v>
+        <v>93.73325488667335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>428.353980909322</v>
       </c>
       <c r="L14" t="n">
-        <v>584.2156652530909</v>
+        <v>320.9026910087402</v>
       </c>
       <c r="M14" t="n">
-        <v>393.2366206252555</v>
+        <v>666.8267822581063</v>
       </c>
       <c r="N14" t="n">
         <v>662.8369412401585</v>
@@ -35670,7 +35670,7 @@
         <v>265.3202168249652</v>
       </c>
       <c r="R14" t="n">
-        <v>10.27718738849691</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>223.43043072102</v>
       </c>
       <c r="O15" t="n">
-        <v>477.2447021547198</v>
+        <v>477.2447021547203</v>
       </c>
       <c r="P15" t="n">
         <v>444.9661020545574</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.62784549813956</v>
+        <v>71.62784549813958</v>
       </c>
       <c r="K16" t="n">
         <v>194.7301470632304</v>
@@ -35813,7 +35813,7 @@
         <v>281.7459863245946</v>
       </c>
       <c r="M16" t="n">
-        <v>302.9821352879326</v>
+        <v>302.9821352879327</v>
       </c>
       <c r="N16" t="n">
         <v>303.2679539029096</v>
@@ -35825,7 +35825,7 @@
         <v>219.7258514331859</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.73325488667334</v>
+        <v>93.73325488667335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>204.4313045517746</v>
+        <v>35.33468937970088</v>
       </c>
       <c r="K17" t="n">
         <v>428.353980909322</v>
       </c>
       <c r="L17" t="n">
-        <v>310.625503620241</v>
+        <v>489.999306180814</v>
       </c>
       <c r="M17" t="n">
         <v>666.8267822581063</v>
@@ -35907,7 +35907,7 @@
         <v>265.3202168249652</v>
       </c>
       <c r="R17" t="n">
-        <v>10.27718738849691</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>128.1282080489184</v>
       </c>
       <c r="K18" t="n">
-        <v>82.42612003385153</v>
+        <v>346.8913570464301</v>
       </c>
       <c r="L18" t="n">
-        <v>157.6225360117836</v>
+        <v>528.4628813152427</v>
       </c>
       <c r="M18" t="n">
-        <v>669.1955207942287</v>
+        <v>203.4904570442288</v>
       </c>
       <c r="N18" t="n">
-        <v>702.7728050645735</v>
+        <v>223.43043072102</v>
       </c>
       <c r="O18" t="n">
-        <v>575.813275134276</v>
+        <v>477.2447021547203</v>
       </c>
       <c r="P18" t="n">
-        <v>126.5033334146203</v>
+        <v>444.9661020545574</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.3703251456698</v>
+        <v>244.2179852628042</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>71.62784549813956</v>
+        <v>71.62784549813952</v>
       </c>
       <c r="K19" t="n">
-        <v>194.7301470632304</v>
+        <v>194.7301470632303</v>
       </c>
       <c r="L19" t="n">
         <v>281.7459863245946</v>
@@ -36053,16 +36053,16 @@
         <v>302.9821352879326</v>
       </c>
       <c r="N19" t="n">
-        <v>303.2679539029096</v>
+        <v>303.2679539029095</v>
       </c>
       <c r="O19" t="n">
         <v>270.3616833618707</v>
       </c>
       <c r="P19" t="n">
-        <v>219.7258514331858</v>
+        <v>219.7258514331859</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.73325488667334</v>
+        <v>93.73325488667329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,10 +36141,10 @@
         <v>457.1784740707983</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.1038577526857</v>
+        <v>160.8266703641909</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>10.27718738849691</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>346.8913570464301</v>
       </c>
       <c r="L21" t="n">
-        <v>429.8943083356868</v>
+        <v>528.4628813152427</v>
       </c>
       <c r="M21" t="n">
-        <v>203.4904570442288</v>
+        <v>498.7842033414028</v>
       </c>
       <c r="N21" t="n">
         <v>223.43043072102</v>
       </c>
       <c r="O21" t="n">
-        <v>575.813275134276</v>
+        <v>181.9509558575464</v>
       </c>
       <c r="P21" t="n">
         <v>444.9661020545574</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>71.62784549813956</v>
+        <v>71.62784549813952</v>
       </c>
       <c r="K22" t="n">
-        <v>194.7301470632304</v>
+        <v>194.7301470632303</v>
       </c>
       <c r="L22" t="n">
         <v>281.7459863245946</v>
@@ -36290,7 +36290,7 @@
         <v>302.9821352879326</v>
       </c>
       <c r="N22" t="n">
-        <v>303.2679539029096</v>
+        <v>303.2679539029095</v>
       </c>
       <c r="O22" t="n">
         <v>270.3616833618707</v>
@@ -36299,7 +36299,7 @@
         <v>219.7258514331859</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.73325488667334</v>
+        <v>93.73325488667329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>35.33468937970088</v>
+        <v>204.4313045517746</v>
       </c>
       <c r="K23" t="n">
         <v>428.353980909322</v>
@@ -36366,7 +36366,7 @@
         <v>584.2156652530909</v>
       </c>
       <c r="M23" t="n">
-        <v>666.8267822581063</v>
+        <v>403.5138080137556</v>
       </c>
       <c r="N23" t="n">
         <v>662.8369412401585</v>
@@ -36378,7 +36378,7 @@
         <v>457.1784740707983</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.1038577526857</v>
+        <v>265.3202168249652</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>128.1282080489184</v>
       </c>
       <c r="K24" t="n">
-        <v>346.8913570464301</v>
+        <v>82.42612003385153</v>
       </c>
       <c r="L24" t="n">
-        <v>528.4628813152427</v>
+        <v>277.8521636304988</v>
       </c>
       <c r="M24" t="n">
-        <v>203.4904570442288</v>
+        <v>669.1955207942287</v>
       </c>
       <c r="N24" t="n">
-        <v>223.43043072102</v>
+        <v>702.7728050645735</v>
       </c>
       <c r="O24" t="n">
         <v>575.813275134276</v>
       </c>
       <c r="P24" t="n">
-        <v>444.9661020545574</v>
+        <v>126.5033334146203</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.649412283248</v>
+        <v>34.14069752695508</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>71.62784549813956</v>
+        <v>71.62784549813952</v>
       </c>
       <c r="K25" t="n">
-        <v>194.7301470632304</v>
+        <v>194.7301470632303</v>
       </c>
       <c r="L25" t="n">
         <v>281.7459863245946</v>
@@ -36527,7 +36527,7 @@
         <v>302.9821352879326</v>
       </c>
       <c r="N25" t="n">
-        <v>303.2679539029096</v>
+        <v>303.2679539029095</v>
       </c>
       <c r="O25" t="n">
         <v>270.3616833618707</v>
@@ -36536,7 +36536,7 @@
         <v>219.7258514331859</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.73325488667334</v>
+        <v>93.73325488667329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>38.28054793178433</v>
+        <v>128.1282080489184</v>
       </c>
       <c r="K27" t="n">
-        <v>82.42612003385153</v>
+        <v>346.8913570464301</v>
       </c>
       <c r="L27" t="n">
-        <v>157.6225360117836</v>
+        <v>528.4628813152427</v>
       </c>
       <c r="M27" t="n">
-        <v>669.1955207942287</v>
+        <v>203.4904570442288</v>
       </c>
       <c r="N27" t="n">
-        <v>702.7728050645735</v>
+        <v>223.43043072102</v>
       </c>
       <c r="O27" t="n">
-        <v>575.813275134276</v>
+        <v>477.2447021547203</v>
       </c>
       <c r="P27" t="n">
-        <v>126.5033334146203</v>
+        <v>444.9661020545574</v>
       </c>
       <c r="Q27" t="n">
         <v>244.2179852628042</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.75146433704914</v>
+        <v>53.75146433704903</v>
       </c>
       <c r="K28" t="n">
-        <v>176.85376590214</v>
+        <v>176.8537659021399</v>
       </c>
       <c r="L28" t="n">
-        <v>263.8696051635042</v>
+        <v>263.8696051635041</v>
       </c>
       <c r="M28" t="n">
-        <v>285.1057541268422</v>
+        <v>285.1057541268421</v>
       </c>
       <c r="N28" t="n">
-        <v>285.3915727418192</v>
+        <v>285.3915727418191</v>
       </c>
       <c r="O28" t="n">
-        <v>252.4853022007803</v>
+        <v>252.4853022007802</v>
       </c>
       <c r="P28" t="n">
-        <v>201.8494702720955</v>
+        <v>201.8494702720954</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.85687372558291</v>
+        <v>75.8568737255828</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.03717270850953</v>
+        <v>128.1282080489184</v>
       </c>
       <c r="K30" t="n">
-        <v>118.6694952571263</v>
+        <v>346.8913570464301</v>
       </c>
       <c r="L30" t="n">
-        <v>157.6225360117836</v>
+        <v>528.4628813152427</v>
       </c>
       <c r="M30" t="n">
-        <v>669.1955207942287</v>
+        <v>203.4904570442288</v>
       </c>
       <c r="N30" t="n">
-        <v>702.7728050645735</v>
+        <v>223.43043072102</v>
       </c>
       <c r="O30" t="n">
-        <v>575.813275134276</v>
+        <v>477.2447021547203</v>
       </c>
       <c r="P30" t="n">
-        <v>126.5033334146203</v>
+        <v>444.9661020545574</v>
       </c>
       <c r="Q30" t="n">
         <v>244.2179852628042</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.75146433704914</v>
+        <v>53.75146433704903</v>
       </c>
       <c r="K31" t="n">
-        <v>176.85376590214</v>
+        <v>176.8537659021399</v>
       </c>
       <c r="L31" t="n">
-        <v>263.8696051635042</v>
+        <v>263.8696051635041</v>
       </c>
       <c r="M31" t="n">
-        <v>285.1057541268422</v>
+        <v>285.1057541268421</v>
       </c>
       <c r="N31" t="n">
-        <v>285.3915727418192</v>
+        <v>285.3915727418191</v>
       </c>
       <c r="O31" t="n">
-        <v>252.4853022007803</v>
+        <v>252.4853022007802</v>
       </c>
       <c r="P31" t="n">
-        <v>201.8494702720955</v>
+        <v>201.8494702720954</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.85687372558291</v>
+        <v>75.8568737255828</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>584.2156652530909</v>
       </c>
       <c r="M32" t="n">
-        <v>666.8267822581064</v>
+        <v>666.8267822581063</v>
       </c>
       <c r="N32" t="n">
         <v>662.8369412401585</v>
@@ -37150,10 +37150,10 @@
         <v>128.1282080489184</v>
       </c>
       <c r="K33" t="n">
-        <v>101.0804889568117</v>
+        <v>346.8913570464301</v>
       </c>
       <c r="L33" t="n">
-        <v>528.4628813152427</v>
+        <v>358.0515638624166</v>
       </c>
       <c r="M33" t="n">
         <v>669.1955207942287</v>
@@ -37162,10 +37162,10 @@
         <v>223.43043072102</v>
       </c>
       <c r="O33" t="n">
-        <v>575.813275134276</v>
+        <v>181.9509558575464</v>
       </c>
       <c r="P33" t="n">
-        <v>126.5033334146203</v>
+        <v>444.9661020545574</v>
       </c>
       <c r="Q33" t="n">
         <v>244.2179852628042</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>53.75146433704914</v>
+        <v>53.75146433704909</v>
       </c>
       <c r="K34" t="n">
-        <v>176.85376590214</v>
+        <v>176.8537659021399</v>
       </c>
       <c r="L34" t="n">
         <v>263.8696051635042</v>
@@ -37238,7 +37238,7 @@
         <v>285.1057541268422</v>
       </c>
       <c r="N34" t="n">
-        <v>285.3915727418192</v>
+        <v>285.3915727418191</v>
       </c>
       <c r="O34" t="n">
         <v>252.4853022007803</v>
@@ -37247,7 +37247,7 @@
         <v>201.8494702720955</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.85687372558291</v>
+        <v>75.85687372558286</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>153.4333209673259</v>
+        <v>204.4313045517746</v>
       </c>
       <c r="K35" t="n">
         <v>428.353980909322</v>
@@ -37314,7 +37314,7 @@
         <v>584.2156652530909</v>
       </c>
       <c r="M35" t="n">
-        <v>666.8267822581063</v>
+        <v>393.2366206252555</v>
       </c>
       <c r="N35" t="n">
         <v>662.8369412401585</v>
@@ -37326,10 +37326,10 @@
         <v>457.1784740707983</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.00522616506052</v>
+        <v>265.3202168249652</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>10.27718738849691</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>128.1282080489184</v>
       </c>
       <c r="K36" t="n">
-        <v>101.0804889568114</v>
+        <v>346.8913570464301</v>
       </c>
       <c r="L36" t="n">
         <v>528.4628813152427</v>
       </c>
       <c r="M36" t="n">
-        <v>669.1955207942287</v>
+        <v>203.4904570442288</v>
       </c>
       <c r="N36" t="n">
         <v>223.43043072102</v>
       </c>
       <c r="O36" t="n">
-        <v>575.813275134276</v>
+        <v>477.2447021547198</v>
       </c>
       <c r="P36" t="n">
-        <v>126.5033334146203</v>
+        <v>444.9661020545574</v>
       </c>
       <c r="Q36" t="n">
         <v>244.2179852628042</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>35.33468937970088</v>
+        <v>204.4313045517746</v>
       </c>
       <c r="K38" t="n">
         <v>428.353980909322</v>
@@ -37554,7 +37554,7 @@
         <v>666.8267822581063</v>
       </c>
       <c r="N38" t="n">
-        <v>662.8369412401585</v>
+        <v>399.5239669958058</v>
       </c>
       <c r="O38" t="n">
         <v>580.2540491535054</v>
@@ -37563,7 +37563,7 @@
         <v>457.1784740707983</v>
       </c>
       <c r="Q38" t="n">
-        <v>171.1038577526857</v>
+        <v>265.3202168249652</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>528.4628813152427</v>
       </c>
       <c r="M39" t="n">
-        <v>203.4904570442288</v>
+        <v>498.7842033414023</v>
       </c>
       <c r="N39" t="n">
         <v>223.43043072102</v>
       </c>
       <c r="O39" t="n">
-        <v>477.2447021547198</v>
+        <v>181.9509558575464</v>
       </c>
       <c r="P39" t="n">
         <v>444.9661020545574</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>204.4313045517746</v>
+        <v>143.1561335788298</v>
       </c>
       <c r="K41" t="n">
-        <v>165.0410066649686</v>
+        <v>428.353980909322</v>
       </c>
       <c r="L41" t="n">
         <v>584.2156652530909</v>
@@ -37800,10 +37800,10 @@
         <v>457.1784740707983</v>
       </c>
       <c r="Q41" t="n">
-        <v>265.3202168249652</v>
+        <v>53.00522616506052</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>10.27718738849691</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>128.1282080489184</v>
       </c>
       <c r="K42" t="n">
-        <v>346.8913570464301</v>
+        <v>248.3227840668742</v>
       </c>
       <c r="L42" t="n">
-        <v>197.1719581588005</v>
+        <v>528.4628813152427</v>
       </c>
       <c r="M42" t="n">
-        <v>669.1955207942287</v>
+        <v>203.4904570442288</v>
       </c>
       <c r="N42" t="n">
-        <v>702.7728050645735</v>
+        <v>223.43043072102</v>
       </c>
       <c r="O42" t="n">
-        <v>181.9509558575464</v>
+        <v>575.813275134276</v>
       </c>
       <c r="P42" t="n">
-        <v>126.5033334146203</v>
+        <v>444.9661020545574</v>
       </c>
       <c r="Q42" t="n">
         <v>244.2179852628042</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369108586739927</v>
+        <v>5.369108586739983</v>
       </c>
       <c r="K43" t="n">
         <v>128.4714101518308</v>
       </c>
       <c r="L43" t="n">
-        <v>215.487249413195</v>
+        <v>215.4872494131951</v>
       </c>
       <c r="M43" t="n">
-        <v>236.723398376533</v>
+        <v>236.7233983765331</v>
       </c>
       <c r="N43" t="n">
         <v>237.00921699151</v>
       </c>
       <c r="O43" t="n">
-        <v>204.1029464504711</v>
+        <v>204.1029464504712</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4671145217863</v>
+        <v>153.4671145217864</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.4745179752737</v>
+        <v>27.47451797527376</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>204.4313045517746</v>
+        <v>153.4333209673268</v>
       </c>
       <c r="K44" t="n">
         <v>428.353980909322</v>
@@ -38025,7 +38025,7 @@
         <v>584.2156652530909</v>
       </c>
       <c r="M44" t="n">
-        <v>393.2366206252565</v>
+        <v>666.8267822581063</v>
       </c>
       <c r="N44" t="n">
         <v>662.8369412401585</v>
@@ -38037,10 +38037,10 @@
         <v>457.1784740707983</v>
       </c>
       <c r="Q44" t="n">
-        <v>265.3202168249652</v>
+        <v>53.00522616506052</v>
       </c>
       <c r="R44" t="n">
-        <v>10.27718738849691</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.03717270850953</v>
+        <v>128.1282080489184</v>
       </c>
       <c r="K45" t="n">
-        <v>118.7860433931322</v>
+        <v>346.8913570464301</v>
       </c>
       <c r="L45" t="n">
         <v>528.4628813152427</v>
       </c>
       <c r="M45" t="n">
-        <v>669.1955207942287</v>
+        <v>203.4904570442288</v>
       </c>
       <c r="N45" t="n">
         <v>223.43043072102</v>
       </c>
       <c r="O45" t="n">
-        <v>575.813275134276</v>
+        <v>477.2447021547198</v>
       </c>
       <c r="P45" t="n">
         <v>444.9661020545574</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.14069752695508</v>
+        <v>244.2179852628042</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369108586739927</v>
+        <v>5.369108586739983</v>
       </c>
       <c r="K46" t="n">
         <v>128.4714101518308</v>
       </c>
       <c r="L46" t="n">
-        <v>215.487249413195</v>
+        <v>215.4872494131951</v>
       </c>
       <c r="M46" t="n">
-        <v>236.723398376533</v>
+        <v>236.7233983765331</v>
       </c>
       <c r="N46" t="n">
         <v>237.00921699151</v>
       </c>
       <c r="O46" t="n">
-        <v>204.1029464504711</v>
+        <v>204.1029464504712</v>
       </c>
       <c r="P46" t="n">
-        <v>153.4671145217863</v>
+        <v>153.4671145217864</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.4745179752737</v>
+        <v>27.47451797527376</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
